--- a/Code/Results/Cases/Case_3_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.564628227515072</v>
+        <v>2.564628227514788</v>
       </c>
       <c r="C2">
-        <v>0.6355487418853727</v>
+        <v>0.6355487418854864</v>
       </c>
       <c r="D2">
-        <v>0.09591158154888291</v>
+        <v>0.09591158154861645</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.587826744640722</v>
+        <v>6.587826744640893</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>2.023035182564229</v>
       </c>
       <c r="J2">
-        <v>0.7173886485951044</v>
+        <v>0.7173886485950618</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.186944871471269</v>
+        <v>2.186944871471212</v>
       </c>
       <c r="C3">
-        <v>0.5402924519779333</v>
+        <v>0.5402924519779049</v>
       </c>
       <c r="D3">
-        <v>0.08530154397448619</v>
+        <v>0.08530154397467982</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.70451226840639</v>
+        <v>1.704512268406447</v>
       </c>
       <c r="J3">
-        <v>0.6107814322195111</v>
+        <v>0.6107814322195253</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.962491886917434</v>
+        <v>1.962491886917462</v>
       </c>
       <c r="C4">
-        <v>0.4838734266807876</v>
+        <v>0.4838734266804465</v>
       </c>
       <c r="D4">
-        <v>0.07922770150734593</v>
+        <v>0.07922770150752712</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.518507312774602</v>
+        <v>1.51850731277456</v>
       </c>
       <c r="J4">
         <v>0.5474764808364228</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.872577292128028</v>
+        <v>1.872577292128</v>
       </c>
       <c r="C5">
-        <v>0.4613053179029407</v>
+        <v>0.4613053179026849</v>
       </c>
       <c r="D5">
-        <v>0.07683807234682583</v>
+        <v>0.0768380723466322</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.444650237132009</v>
+        <v>1.444650237131967</v>
       </c>
       <c r="J5">
-        <v>0.5221254962168942</v>
+        <v>0.5221254962169084</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.857732312411969</v>
+        <v>1.857732312411827</v>
       </c>
       <c r="C6">
-        <v>0.4575809096559738</v>
+        <v>0.4575809096562011</v>
       </c>
       <c r="D6">
-        <v>0.07644579370983529</v>
+        <v>0.07644579370975002</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.979813973680365</v>
+        <v>4.979813973680479</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.432491596739254</v>
+        <v>1.43249159673924</v>
       </c>
       <c r="J6">
         <v>0.5179404403053169</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.961273372201617</v>
+        <v>1.961273372201788</v>
       </c>
       <c r="C7">
         <v>0.4835674691114491</v>
       </c>
       <c r="D7">
-        <v>0.07919515775155261</v>
+        <v>0.07919515775155972</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.2145777993465</v>
+        <v>5.214577799346472</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.517503941729373</v>
+        <v>1.51750394172943</v>
       </c>
       <c r="J7">
-        <v>0.5471328963330677</v>
+        <v>0.5471328963331032</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.432647948440206</v>
+        <v>2.43264794844049</v>
       </c>
       <c r="C8">
-        <v>0.6022112177547854</v>
+        <v>0.6022112177556096</v>
       </c>
       <c r="D8">
-        <v>0.09214479359348537</v>
+        <v>0.09214479359382644</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.286714750025993</v>
+        <v>6.286714750026022</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.910912987627029</v>
+        <v>1.910912987627043</v>
       </c>
       <c r="J8">
-        <v>0.6801216210667818</v>
+        <v>0.680121621066796</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.433937532430321</v>
+        <v>3.433937532430605</v>
       </c>
       <c r="C9">
-        <v>0.8567597755423719</v>
+        <v>0.8567597755414909</v>
       </c>
       <c r="D9">
-        <v>0.1225432000913678</v>
+        <v>0.1225432000911439</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.580176701270886</v>
+        <v>8.580176701270943</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.785491168252378</v>
+        <v>2.78549116825242</v>
       </c>
       <c r="J9">
-        <v>0.9632918103978483</v>
+        <v>0.9632918103978767</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.24895585195884</v>
+        <v>4.248955851959181</v>
       </c>
       <c r="C10">
-        <v>1.067252466199534</v>
+        <v>1.067252466200415</v>
       </c>
       <c r="D10">
-        <v>0.1509247575359893</v>
+        <v>0.1509247575359645</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.46098849189167</v>
+        <v>10.46098849189173</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.543798031077557</v>
+        <v>3.543798031077529</v>
       </c>
       <c r="J10">
-        <v>1.194675022387415</v>
+        <v>1.194675022387372</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.64757566184079</v>
+        <v>4.647575661840904</v>
       </c>
       <c r="C11">
-        <v>1.171496280468631</v>
+        <v>1.171496280468602</v>
       </c>
       <c r="D11">
-        <v>0.1662522571325731</v>
+        <v>0.1662522571325482</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.38507904048925</v>
+        <v>11.3850790404893</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.932879682653123</v>
+        <v>3.932879682653152</v>
       </c>
       <c r="J11">
-        <v>1.308193412901872</v>
+        <v>1.3081934129019</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.803830939292652</v>
+        <v>4.80383093929305</v>
       </c>
       <c r="C12">
-        <v>1.212615267957659</v>
+        <v>1.212615267958569</v>
       </c>
       <c r="D12">
-        <v>0.1725535794179009</v>
+        <v>0.1725535794172046</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.74804516828596</v>
+        <v>11.74804516828607</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.089087031867251</v>
+        <v>4.089087031867209</v>
       </c>
       <c r="J12">
-        <v>1.352761055920737</v>
+        <v>1.352761055920766</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.76991637221812</v>
+        <v>4.769916372218233</v>
       </c>
       <c r="C13">
-        <v>1.203677817133325</v>
+        <v>1.203677817131933</v>
       </c>
       <c r="D13">
-        <v>0.1711711808861267</v>
+        <v>0.1711711808856364</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.66923006769429</v>
+        <v>11.6692300676944</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.054997172170985</v>
+        <v>4.054997172170999</v>
       </c>
       <c r="J13">
-        <v>1.343084378507143</v>
+        <v>1.343084378507172</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.660315290117296</v>
+        <v>4.660315290117239</v>
       </c>
       <c r="C14">
-        <v>1.17484317681064</v>
+        <v>1.174843176811066</v>
       </c>
       <c r="D14">
-        <v>0.1667595892376497</v>
+        <v>0.1667595892378237</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.945534457471297</v>
+        <v>3.945534457471283</v>
       </c>
       <c r="J14">
-        <v>1.311825541917216</v>
+        <v>1.31182554191723</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.59391950197039</v>
+        <v>4.593919501970504</v>
       </c>
       <c r="C15">
-        <v>1.157410669576223</v>
+        <v>1.157410669576649</v>
       </c>
       <c r="D15">
-        <v>0.1641277630802733</v>
+        <v>0.16412776307941</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.26053547330912</v>
+        <v>11.26053547330918</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>3.879735407721029</v>
       </c>
       <c r="J15">
-        <v>1.292898681400274</v>
+        <v>1.292898681400303</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.223566453448541</v>
+        <v>4.223566453448427</v>
       </c>
       <c r="C16">
-        <v>1.060643337814241</v>
+        <v>1.060643337814696</v>
       </c>
       <c r="D16">
-        <v>0.1499829816591109</v>
+        <v>0.1499829816584928</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.40222172632809</v>
+        <v>10.40222172632815</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.519449853942334</v>
+        <v>3.519449853942277</v>
       </c>
       <c r="J16">
-        <v>1.187452932098552</v>
+        <v>1.18745293209858</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.004290962436301</v>
+        <v>4.004290962436414</v>
       </c>
       <c r="C17">
-        <v>1.003708512230958</v>
+        <v>1.003708512231015</v>
       </c>
       <c r="D17">
-        <v>0.1420114036168343</v>
+        <v>0.1420114036168911</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.895145236405966</v>
+        <v>9.895145236405824</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.311204360642662</v>
+        <v>3.311204360642677</v>
       </c>
       <c r="J17">
-        <v>1.125118634723066</v>
+        <v>1.125118634723009</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.880693519854333</v>
+        <v>3.880693519853708</v>
       </c>
       <c r="C18">
-        <v>0.9717277967202449</v>
+        <v>0.9717277967206712</v>
       </c>
       <c r="D18">
-        <v>0.1376420078228868</v>
+        <v>0.1376420078226843</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.195382169988292</v>
+        <v>3.195382169988335</v>
       </c>
       <c r="J18">
         <v>1.090013278102475</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.839246613169564</v>
+        <v>3.839246613170133</v>
       </c>
       <c r="C19">
-        <v>0.9610208992740183</v>
+        <v>0.9610208992752405</v>
       </c>
       <c r="D19">
-        <v>0.1361961076482885</v>
+        <v>0.1361961076482707</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.514031667889611</v>
+        <v>9.51403166788964</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.156785816600788</v>
+        <v>3.156785816600831</v>
       </c>
       <c r="J19">
-        <v>1.078245849151088</v>
+        <v>1.078245849151074</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>4.027364029714249</v>
       </c>
       <c r="C20">
-        <v>1.009687403381747</v>
+        <v>1.009687403381321</v>
       </c>
       <c r="D20">
-        <v>0.1428367991417936</v>
+        <v>0.1428367991417794</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.9484626538854</v>
+        <v>9.948462653885429</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.332948235736012</v>
+        <v>3.332948235735969</v>
       </c>
       <c r="J20">
-        <v>1.131674446505158</v>
+        <v>1.131674446505102</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.692350910458629</v>
+        <v>4.692350910458572</v>
       </c>
       <c r="C21">
-        <v>1.183263761555907</v>
+        <v>1.183263761555935</v>
       </c>
       <c r="D21">
-        <v>0.16804033207967</v>
+        <v>0.1680403320796948</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.48904579880553</v>
+        <v>11.48904579880542</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.977419509771224</v>
+        <v>3.97741950977121</v>
       </c>
       <c r="J21">
         <v>1.320960225325209</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.158913983041543</v>
+        <v>5.158913983041487</v>
       </c>
       <c r="C22">
-        <v>1.306630349220796</v>
+        <v>1.306630349221251</v>
       </c>
       <c r="D22">
-        <v>0.1875423586020233</v>
+        <v>0.1875423586015863</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.452517829083703</v>
+        <v>4.452517829083689</v>
       </c>
       <c r="J22">
-        <v>1.454194541051095</v>
+        <v>1.454194541051038</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.906400976290797</v>
+        <v>4.906400976290911</v>
       </c>
       <c r="C23">
-        <v>1.239689205840165</v>
+        <v>1.239689205840051</v>
       </c>
       <c r="D23">
-        <v>0.1767853805396271</v>
+        <v>0.1767853805393429</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.9865280219143</v>
+        <v>11.98652802191458</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.192830183352527</v>
+        <v>4.192830183352555</v>
       </c>
       <c r="J23">
-        <v>1.382038736808127</v>
+        <v>1.382038736808084</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.016925102585446</v>
+        <v>4.016925102585333</v>
       </c>
       <c r="C24">
-        <v>1.006982034144187</v>
+        <v>1.006982034144642</v>
       </c>
       <c r="D24">
-        <v>0.1424629827674231</v>
+        <v>0.1424629827675119</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.924339152567228</v>
+        <v>9.924339152567086</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>3.323105851674427</v>
       </c>
       <c r="J24">
-        <v>1.128708313003656</v>
+        <v>1.128708313003699</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.151965062503677</v>
+        <v>3.151965062503621</v>
       </c>
       <c r="C25">
-        <v>0.7846703088974323</v>
+        <v>0.7846703088978302</v>
       </c>
       <c r="D25">
-        <v>0.1135332502044957</v>
+        <v>0.113533250204668</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.932291068215704</v>
+        <v>7.932291068215733</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>2.533377523556936</v>
       </c>
       <c r="J25">
-        <v>0.8834389166674157</v>
+        <v>0.8834389166674868</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.564628227514788</v>
+        <v>2.564628227515072</v>
       </c>
       <c r="C2">
-        <v>0.6355487418854864</v>
+        <v>0.6355487418853727</v>
       </c>
       <c r="D2">
-        <v>0.09591158154861645</v>
+        <v>0.09591158154888291</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.587826744640893</v>
+        <v>6.587826744640722</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>2.023035182564229</v>
       </c>
       <c r="J2">
-        <v>0.7173886485950618</v>
+        <v>0.7173886485951044</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.186944871471212</v>
+        <v>2.186944871471269</v>
       </c>
       <c r="C3">
-        <v>0.5402924519779049</v>
+        <v>0.5402924519779333</v>
       </c>
       <c r="D3">
-        <v>0.08530154397467982</v>
+        <v>0.08530154397448619</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.704512268406447</v>
+        <v>1.70451226840639</v>
       </c>
       <c r="J3">
-        <v>0.6107814322195253</v>
+        <v>0.6107814322195111</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.962491886917462</v>
+        <v>1.962491886917434</v>
       </c>
       <c r="C4">
-        <v>0.4838734266804465</v>
+        <v>0.4838734266807876</v>
       </c>
       <c r="D4">
-        <v>0.07922770150752712</v>
+        <v>0.07922770150734593</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.51850731277456</v>
+        <v>1.518507312774602</v>
       </c>
       <c r="J4">
         <v>0.5474764808364228</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.872577292128</v>
+        <v>1.872577292128028</v>
       </c>
       <c r="C5">
-        <v>0.4613053179026849</v>
+        <v>0.4613053179029407</v>
       </c>
       <c r="D5">
-        <v>0.0768380723466322</v>
+        <v>0.07683807234682583</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.444650237131967</v>
+        <v>1.444650237132009</v>
       </c>
       <c r="J5">
-        <v>0.5221254962169084</v>
+        <v>0.5221254962168942</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.857732312411827</v>
+        <v>1.857732312411969</v>
       </c>
       <c r="C6">
-        <v>0.4575809096562011</v>
+        <v>0.4575809096559738</v>
       </c>
       <c r="D6">
-        <v>0.07644579370975002</v>
+        <v>0.07644579370983529</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.979813973680479</v>
+        <v>4.979813973680365</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.43249159673924</v>
+        <v>1.432491596739254</v>
       </c>
       <c r="J6">
         <v>0.5179404403053169</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.961273372201788</v>
+        <v>1.961273372201617</v>
       </c>
       <c r="C7">
         <v>0.4835674691114491</v>
       </c>
       <c r="D7">
-        <v>0.07919515775155972</v>
+        <v>0.07919515775155261</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.214577799346472</v>
+        <v>5.2145777993465</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.51750394172943</v>
+        <v>1.517503941729373</v>
       </c>
       <c r="J7">
-        <v>0.5471328963331032</v>
+        <v>0.5471328963330677</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.43264794844049</v>
+        <v>2.432647948440206</v>
       </c>
       <c r="C8">
-        <v>0.6022112177556096</v>
+        <v>0.6022112177547854</v>
       </c>
       <c r="D8">
-        <v>0.09214479359382644</v>
+        <v>0.09214479359348537</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.286714750026022</v>
+        <v>6.286714750025993</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.910912987627043</v>
+        <v>1.910912987627029</v>
       </c>
       <c r="J8">
-        <v>0.680121621066796</v>
+        <v>0.6801216210667818</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.433937532430605</v>
+        <v>3.433937532430321</v>
       </c>
       <c r="C9">
-        <v>0.8567597755414909</v>
+        <v>0.8567597755423719</v>
       </c>
       <c r="D9">
-        <v>0.1225432000911439</v>
+        <v>0.1225432000913678</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.580176701270943</v>
+        <v>8.580176701270886</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.78549116825242</v>
+        <v>2.785491168252378</v>
       </c>
       <c r="J9">
-        <v>0.9632918103978767</v>
+        <v>0.9632918103978483</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.248955851959181</v>
+        <v>4.24895585195884</v>
       </c>
       <c r="C10">
-        <v>1.067252466200415</v>
+        <v>1.067252466199534</v>
       </c>
       <c r="D10">
-        <v>0.1509247575359645</v>
+        <v>0.1509247575359893</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.46098849189173</v>
+        <v>10.46098849189167</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.543798031077529</v>
+        <v>3.543798031077557</v>
       </c>
       <c r="J10">
-        <v>1.194675022387372</v>
+        <v>1.194675022387415</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.647575661840904</v>
+        <v>4.64757566184079</v>
       </c>
       <c r="C11">
-        <v>1.171496280468602</v>
+        <v>1.171496280468631</v>
       </c>
       <c r="D11">
-        <v>0.1662522571325482</v>
+        <v>0.1662522571325731</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.3850790404893</v>
+        <v>11.38507904048925</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.932879682653152</v>
+        <v>3.932879682653123</v>
       </c>
       <c r="J11">
-        <v>1.3081934129019</v>
+        <v>1.308193412901872</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.80383093929305</v>
+        <v>4.803830939292652</v>
       </c>
       <c r="C12">
-        <v>1.212615267958569</v>
+        <v>1.212615267957659</v>
       </c>
       <c r="D12">
-        <v>0.1725535794172046</v>
+        <v>0.1725535794179009</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.74804516828607</v>
+        <v>11.74804516828596</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.089087031867209</v>
+        <v>4.089087031867251</v>
       </c>
       <c r="J12">
-        <v>1.352761055920766</v>
+        <v>1.352761055920737</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.769916372218233</v>
+        <v>4.76991637221812</v>
       </c>
       <c r="C13">
-        <v>1.203677817131933</v>
+        <v>1.203677817133325</v>
       </c>
       <c r="D13">
-        <v>0.1711711808856364</v>
+        <v>0.1711711808861267</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.6692300676944</v>
+        <v>11.66923006769429</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.054997172170999</v>
+        <v>4.054997172170985</v>
       </c>
       <c r="J13">
-        <v>1.343084378507172</v>
+        <v>1.343084378507143</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.660315290117239</v>
+        <v>4.660315290117296</v>
       </c>
       <c r="C14">
-        <v>1.174843176811066</v>
+        <v>1.17484317681064</v>
       </c>
       <c r="D14">
-        <v>0.1667595892378237</v>
+        <v>0.1667595892376497</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.945534457471283</v>
+        <v>3.945534457471297</v>
       </c>
       <c r="J14">
-        <v>1.31182554191723</v>
+        <v>1.311825541917216</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.593919501970504</v>
+        <v>4.59391950197039</v>
       </c>
       <c r="C15">
-        <v>1.157410669576649</v>
+        <v>1.157410669576223</v>
       </c>
       <c r="D15">
-        <v>0.16412776307941</v>
+        <v>0.1641277630802733</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.26053547330918</v>
+        <v>11.26053547330912</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>3.879735407721029</v>
       </c>
       <c r="J15">
-        <v>1.292898681400303</v>
+        <v>1.292898681400274</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.223566453448427</v>
+        <v>4.223566453448541</v>
       </c>
       <c r="C16">
-        <v>1.060643337814696</v>
+        <v>1.060643337814241</v>
       </c>
       <c r="D16">
-        <v>0.1499829816584928</v>
+        <v>0.1499829816591109</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.40222172632815</v>
+        <v>10.40222172632809</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.519449853942277</v>
+        <v>3.519449853942334</v>
       </c>
       <c r="J16">
-        <v>1.18745293209858</v>
+        <v>1.187452932098552</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.004290962436414</v>
+        <v>4.004290962436301</v>
       </c>
       <c r="C17">
-        <v>1.003708512231015</v>
+        <v>1.003708512230958</v>
       </c>
       <c r="D17">
-        <v>0.1420114036168911</v>
+        <v>0.1420114036168343</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.895145236405824</v>
+        <v>9.895145236405966</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.311204360642677</v>
+        <v>3.311204360642662</v>
       </c>
       <c r="J17">
-        <v>1.125118634723009</v>
+        <v>1.125118634723066</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.880693519853708</v>
+        <v>3.880693519854333</v>
       </c>
       <c r="C18">
-        <v>0.9717277967206712</v>
+        <v>0.9717277967202449</v>
       </c>
       <c r="D18">
-        <v>0.1376420078226843</v>
+        <v>0.1376420078228868</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.195382169988335</v>
+        <v>3.195382169988292</v>
       </c>
       <c r="J18">
         <v>1.090013278102475</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.839246613170133</v>
+        <v>3.839246613169564</v>
       </c>
       <c r="C19">
-        <v>0.9610208992752405</v>
+        <v>0.9610208992740183</v>
       </c>
       <c r="D19">
-        <v>0.1361961076482707</v>
+        <v>0.1361961076482885</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.51403166788964</v>
+        <v>9.514031667889611</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.156785816600831</v>
+        <v>3.156785816600788</v>
       </c>
       <c r="J19">
-        <v>1.078245849151074</v>
+        <v>1.078245849151088</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>4.027364029714249</v>
       </c>
       <c r="C20">
-        <v>1.009687403381321</v>
+        <v>1.009687403381747</v>
       </c>
       <c r="D20">
-        <v>0.1428367991417794</v>
+        <v>0.1428367991417936</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.948462653885429</v>
+        <v>9.9484626538854</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.332948235735969</v>
+        <v>3.332948235736012</v>
       </c>
       <c r="J20">
-        <v>1.131674446505102</v>
+        <v>1.131674446505158</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.692350910458572</v>
+        <v>4.692350910458629</v>
       </c>
       <c r="C21">
-        <v>1.183263761555935</v>
+        <v>1.183263761555907</v>
       </c>
       <c r="D21">
-        <v>0.1680403320796948</v>
+        <v>0.16804033207967</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.48904579880542</v>
+        <v>11.48904579880553</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.97741950977121</v>
+        <v>3.977419509771224</v>
       </c>
       <c r="J21">
         <v>1.320960225325209</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.158913983041487</v>
+        <v>5.158913983041543</v>
       </c>
       <c r="C22">
-        <v>1.306630349221251</v>
+        <v>1.306630349220796</v>
       </c>
       <c r="D22">
-        <v>0.1875423586015863</v>
+        <v>0.1875423586020233</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.452517829083689</v>
+        <v>4.452517829083703</v>
       </c>
       <c r="J22">
-        <v>1.454194541051038</v>
+        <v>1.454194541051095</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.906400976290911</v>
+        <v>4.906400976290797</v>
       </c>
       <c r="C23">
-        <v>1.239689205840051</v>
+        <v>1.239689205840165</v>
       </c>
       <c r="D23">
-        <v>0.1767853805393429</v>
+        <v>0.1767853805396271</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.98652802191458</v>
+        <v>11.9865280219143</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.192830183352555</v>
+        <v>4.192830183352527</v>
       </c>
       <c r="J23">
-        <v>1.382038736808084</v>
+        <v>1.382038736808127</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.016925102585333</v>
+        <v>4.016925102585446</v>
       </c>
       <c r="C24">
-        <v>1.006982034144642</v>
+        <v>1.006982034144187</v>
       </c>
       <c r="D24">
-        <v>0.1424629827675119</v>
+        <v>0.1424629827674231</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.924339152567086</v>
+        <v>9.924339152567228</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>3.323105851674427</v>
       </c>
       <c r="J24">
-        <v>1.128708313003699</v>
+        <v>1.128708313003656</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.151965062503621</v>
+        <v>3.151965062503677</v>
       </c>
       <c r="C25">
-        <v>0.7846703088978302</v>
+        <v>0.7846703088974323</v>
       </c>
       <c r="D25">
-        <v>0.113533250204668</v>
+        <v>0.1135332502044957</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.932291068215733</v>
+        <v>7.932291068215704</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>2.533377523556936</v>
       </c>
       <c r="J25">
-        <v>0.8834389166674868</v>
+        <v>0.8834389166674157</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.564628227515072</v>
+        <v>2.537364787792569</v>
       </c>
       <c r="C2">
-        <v>0.6355487418853727</v>
+        <v>0.6223131841554732</v>
       </c>
       <c r="D2">
-        <v>0.09591158154888291</v>
+        <v>0.1015699729489015</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.587826744640722</v>
+        <v>6.588909938957983</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007683093104506237</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.023035182564229</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7173886485951044</v>
+        <v>2.011700269557537</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7080944799396391</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.186944871471269</v>
+        <v>2.164595094313995</v>
       </c>
       <c r="C3">
-        <v>0.5402924519779333</v>
+        <v>0.5287037034218827</v>
       </c>
       <c r="D3">
-        <v>0.08530154397448619</v>
+        <v>0.09076738067510171</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.727199627316196</v>
+        <v>5.736189411980178</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007806715763497651</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.70451226840639</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6107814322195111</v>
+        <v>1.695376350717638</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6029902883638485</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.962491886917434</v>
+        <v>1.943092691742407</v>
       </c>
       <c r="C4">
-        <v>0.4838734266807876</v>
+        <v>0.4732728776512545</v>
       </c>
       <c r="D4">
-        <v>0.07922770150734593</v>
+        <v>0.0845692436155332</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.217342263244205</v>
+        <v>5.230951623956969</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007883288660787958</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.518507312774602</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5474764808364228</v>
+        <v>1.510577470852425</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5405879633693331</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.872577292128028</v>
+        <v>1.854370150801969</v>
       </c>
       <c r="C5">
-        <v>0.4613053179029407</v>
+        <v>0.4511039207062026</v>
       </c>
       <c r="D5">
-        <v>0.07683807234682583</v>
+        <v>0.08212765098018338</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.013455392082449</v>
+        <v>5.028902669446069</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007914728385630922</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.444650237132009</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5221254962168942</v>
+        <v>1.437184231599133</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5156016827913703</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.857732312411969</v>
+        <v>1.839722648311664</v>
       </c>
       <c r="C6">
-        <v>0.4575809096559738</v>
+        <v>0.4474456333161925</v>
       </c>
       <c r="D6">
-        <v>0.07644579370983529</v>
+        <v>0.08172666927924688</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.979813973680365</v>
+        <v>4.995564109425914</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007919964940891156</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.432491596739254</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5179404403053169</v>
+        <v>1.425101150848363</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5114770468748233</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.961273372201617</v>
+        <v>1.941890287853653</v>
       </c>
       <c r="C7">
-        <v>0.4835674691114491</v>
+        <v>0.4729723149490326</v>
       </c>
       <c r="D7">
-        <v>0.07919515775155261</v>
+        <v>0.08453600415463036</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.2145777993465</v>
+        <v>5.228212110455701</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007883711633669781</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.517503941729373</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5471328963330677</v>
+        <v>1.509580457474215</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5402493077388186</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.432647948440206</v>
+        <v>2.40709682181739</v>
       </c>
       <c r="C8">
-        <v>0.6022112177547854</v>
+        <v>0.589549744161161</v>
       </c>
       <c r="D8">
-        <v>0.09214479359348537</v>
+        <v>0.09773820880883832</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.286714750025993</v>
+        <v>6.290582742732624</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007725623844319485</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.910912987627029</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6801216210667818</v>
+        <v>1.900372157003801</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6713512211506725</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.433937532430321</v>
+        <v>3.395377101437816</v>
       </c>
       <c r="C9">
-        <v>0.8567597755423719</v>
+        <v>0.8397285215079933</v>
       </c>
       <c r="D9">
-        <v>0.1225432000913678</v>
+        <v>0.1285671188089808</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.580176701270886</v>
+        <v>8.562140651053681</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007417128869427164</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.785491168252378</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9632918103978483</v>
+        <v>2.768109256312187</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9505413388190362</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.24895585195884</v>
+        <v>4.199485464415432</v>
       </c>
       <c r="C10">
-        <v>1.067252466199534</v>
+        <v>1.046536178741974</v>
       </c>
       <c r="D10">
-        <v>0.1509247575359893</v>
+        <v>0.1571804590652199</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.46098849189167</v>
+        <v>10.42334235492467</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007184439976966727</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.543798031077557</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1.194675022387415</v>
+        <v>3.519059688839008</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.178583576865876</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.64757566184079</v>
+        <v>4.592540082541632</v>
       </c>
       <c r="C11">
-        <v>1.171496280468631</v>
+        <v>1.14889057429545</v>
       </c>
       <c r="D11">
-        <v>0.1662522571325731</v>
+        <v>0.1725719505762981</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.38507904048925</v>
+        <v>11.33702608238195</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007074959379450342</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.932879682653123</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.308193412901872</v>
+        <v>3.903721274621674</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.290395838180729</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.803830939292652</v>
+        <v>4.746557089885243</v>
       </c>
       <c r="C12">
-        <v>1.212615267957659</v>
+        <v>1.189247541366569</v>
       </c>
       <c r="D12">
-        <v>0.1725535794179009</v>
+        <v>0.1788875150476201</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.74804516828596</v>
+        <v>11.6957330230934</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007032691426602191</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.089087031867251</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1.352761055920737</v>
+        <v>4.05801039536712</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.334276849003587</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.76991637221812</v>
+        <v>4.713131372635871</v>
       </c>
       <c r="C13">
-        <v>1.203677817133325</v>
+        <v>1.180476628022205</v>
       </c>
       <c r="D13">
-        <v>0.1711711808861267</v>
+        <v>0.1775025917289703</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.66923006769429</v>
+        <v>11.61785169981738</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007041836480426023</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.054997172170985</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.343084378507143</v>
+        <v>4.024346634125365</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.324750158737018</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.660315290117296</v>
+        <v>4.605098531660303</v>
       </c>
       <c r="C14">
-        <v>1.17484317681064</v>
+        <v>1.152175834827943</v>
       </c>
       <c r="D14">
-        <v>0.1667595892376497</v>
+        <v>0.1730806886557907</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.41465663948242</v>
+        <v>11.36626046879604</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.000707150027227466</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.945534457471297</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.311825541917216</v>
+        <v>3.916223866028531</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.293972396960058</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.59391950197039</v>
+        <v>4.539644569726306</v>
       </c>
       <c r="C15">
-        <v>1.157410669576223</v>
+        <v>1.135063641676908</v>
       </c>
       <c r="D15">
-        <v>0.1641277630802733</v>
+        <v>0.1704410751669023</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.26053547330912</v>
+        <v>11.21392042691298</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007089554209652006</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.879735407721029</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.292898681400274</v>
+        <v>3.851210066982134</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.275334389382607</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.223566453448541</v>
+        <v>4.174444367588933</v>
       </c>
       <c r="C16">
-        <v>1.060643337814241</v>
+        <v>1.040045065148917</v>
       </c>
       <c r="D16">
-        <v>0.1499829816591109</v>
+        <v>0.1562333836581367</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.40222172632809</v>
+        <v>10.36521806315562</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007191499559033909</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.519449853942334</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1.187452932098552</v>
+        <v>3.494972280422246</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.17146821780787</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.004290962436301</v>
+        <v>3.958150771397015</v>
       </c>
       <c r="C17">
-        <v>1.003708512230958</v>
+        <v>0.9841195286219033</v>
       </c>
       <c r="D17">
-        <v>0.1420114036168343</v>
+        <v>0.1482105080708536</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.895145236405966</v>
+        <v>9.863598429896655</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007252936983690143</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.311204360642662</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1.125118634723066</v>
+        <v>3.288886416914963</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.110047462412268</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.880693519854333</v>
+        <v>3.836215313513776</v>
       </c>
       <c r="C18">
-        <v>0.9717277967202449</v>
+        <v>0.952700555224169</v>
       </c>
       <c r="D18">
-        <v>0.1376420078228868</v>
+        <v>0.143808048562331</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.609694038489693</v>
+        <v>9.581154436347816</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007287954596781331</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.195382169988292</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1.090013278102475</v>
+        <v>3.174212801997214</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.075451123286712</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.839246613169564</v>
+        <v>3.79532301099448</v>
       </c>
       <c r="C19">
-        <v>0.9610208992740183</v>
+        <v>0.9421809902543714</v>
       </c>
       <c r="D19">
-        <v>0.1361961076482885</v>
+        <v>0.1423504245532214</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.514031667889611</v>
+        <v>9.486490050627708</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007299763192210526</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.156785816600788</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1.078245849151088</v>
+        <v>3.135991198497294</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.063853530785579</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.027364029714249</v>
+        <v>3.980912159392517</v>
       </c>
       <c r="C20">
-        <v>1.009687403381747</v>
+        <v>0.9899930119708529</v>
       </c>
       <c r="D20">
-        <v>0.1428367991417936</v>
+        <v>0.1490417533725541</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.9484626538854</v>
+        <v>9.916349148305756</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007246431687393882</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.332948235736012</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1.131674446505158</v>
+        <v>3.310410566396996</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.116507804154722</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.692350910458629</v>
+        <v>4.636677549210845</v>
       </c>
       <c r="C21">
-        <v>1.183263761555907</v>
+        <v>1.160441050506165</v>
       </c>
       <c r="D21">
-        <v>0.16804033207967</v>
+        <v>0.1743647787368658</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.48904579880553</v>
+        <v>11.43978345630768</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.000706281215972373</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.977419509771224</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1.320960225325209</v>
+        <v>3.947722995816633</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.302967026109343</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.158913983041543</v>
+        <v>5.096408643644452</v>
       </c>
       <c r="C22">
-        <v>1.306630349220796</v>
+        <v>1.281476451368547</v>
       </c>
       <c r="D22">
-        <v>0.1875423586020233</v>
+        <v>0.1938819850031592</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.57438936779477</v>
+        <v>12.51196210134896</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006937852353990388</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.452517829083703</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.454194541051095</v>
+        <v>4.416621401088321</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.434104370240235</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.906400976290797</v>
+        <v>4.847637808222203</v>
       </c>
       <c r="C23">
-        <v>1.239689205840165</v>
+        <v>1.215813728991009</v>
       </c>
       <c r="D23">
-        <v>0.1767853805396271</v>
+        <v>0.1831249494373033</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.9865280219143</v>
+        <v>11.93135892593386</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007005128374954256</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.192830183352527</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1.382038736808127</v>
+        <v>4.160430306394602</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.363097500464448</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.016925102585446</v>
+        <v>3.970614302563376</v>
       </c>
       <c r="C24">
-        <v>1.006982034144187</v>
+        <v>0.9873353542023722</v>
       </c>
       <c r="D24">
-        <v>0.1424629827674231</v>
+        <v>0.1486653031859468</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.924339152567228</v>
+        <v>9.892482249648737</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007249373658973066</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.323105851674427</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1.128708313003656</v>
+        <v>3.300667804202632</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.113584882169008</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.151965062503677</v>
+        <v>3.117086938493685</v>
       </c>
       <c r="C25">
-        <v>0.7846703088974323</v>
+        <v>0.7688781199285586</v>
       </c>
       <c r="D25">
-        <v>0.1135332502044957</v>
+        <v>0.1194507969128384</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.932291068215704</v>
+        <v>7.92062514908821</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007501032284385275</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.533377523556936</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8834389166674157</v>
+        <v>2.518128452203797</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8718152737766474</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.537364787792569</v>
+        <v>2.636987163473577</v>
       </c>
       <c r="C2">
-        <v>0.6223131841554732</v>
+        <v>0.4948052347650389</v>
       </c>
       <c r="D2">
-        <v>0.1015699729489015</v>
+        <v>0.3739001085587006</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.588909938957983</v>
+        <v>6.627369597189471</v>
       </c>
       <c r="G2">
-        <v>0.0007683093104506237</v>
+        <v>0.0008030749600158593</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.011700269557537</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7080944799396391</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1706129441302551</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4378083126548944</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.164595094313995</v>
+        <v>2.274918481723432</v>
       </c>
       <c r="C3">
-        <v>0.5287037034218827</v>
+        <v>0.4275157641894793</v>
       </c>
       <c r="D3">
-        <v>0.09076738067510171</v>
+        <v>0.3374011933183425</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.736189411980178</v>
+        <v>5.861668356433654</v>
       </c>
       <c r="G3">
-        <v>0.0007806715763497651</v>
+        <v>0.0008146716031697066</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.695376350717638</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6029902883638485</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1562444403834249</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3818629766698578</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.943092691742407</v>
+        <v>2.059281217103091</v>
       </c>
       <c r="C4">
-        <v>0.4732728776512545</v>
+        <v>0.3872283928711511</v>
       </c>
       <c r="D4">
-        <v>0.0845692436155332</v>
+        <v>0.3155495595296998</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.230951623956969</v>
+        <v>5.403627560019231</v>
       </c>
       <c r="G4">
-        <v>0.0007883288660787958</v>
+        <v>0.0008219319034548021</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.510577470852425</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5405879633693331</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1477055274334518</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3485609697026675</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.854370150801969</v>
+        <v>1.972861526405097</v>
       </c>
       <c r="C5">
-        <v>0.4511039207062026</v>
+        <v>0.3710207809694737</v>
       </c>
       <c r="D5">
-        <v>0.08212765098018338</v>
+        <v>0.3067625889411545</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.028902669446069</v>
+        <v>5.219570654548193</v>
       </c>
       <c r="G5">
-        <v>0.0007914728385630922</v>
+        <v>0.0008249292969371212</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.437184231599133</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5156016827913703</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1442895358095981</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3352208175740898</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.839722648311664</v>
+        <v>1.958593355420021</v>
       </c>
       <c r="C6">
-        <v>0.4474456333161925</v>
+        <v>0.3683408735288367</v>
       </c>
       <c r="D6">
-        <v>0.08172666927924688</v>
+        <v>0.3053100106500608</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.995564109425914</v>
+        <v>5.189152974374707</v>
       </c>
       <c r="G6">
-        <v>0.0007919964940891156</v>
+        <v>0.0008254294504960722</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.425101150848363</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5114770468748233</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1437259523369008</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3330187312295152</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.941890287853653</v>
+        <v>2.058110120751962</v>
       </c>
       <c r="C7">
-        <v>0.4729723149490326</v>
+        <v>0.387009022131366</v>
       </c>
       <c r="D7">
-        <v>0.08453600415463036</v>
+        <v>0.3154306069589268</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.228212110455701</v>
+        <v>5.401135336729368</v>
       </c>
       <c r="G7">
-        <v>0.0007883711633669781</v>
+        <v>0.0008219721659743578</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.509580457474215</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5402493077388186</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1476592097766414</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3483801667157493</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.40709682181739</v>
+        <v>2.510617417677793</v>
       </c>
       <c r="C8">
-        <v>0.589549744161161</v>
+        <v>0.4713589981120663</v>
       </c>
       <c r="D8">
-        <v>0.09773820880883832</v>
+        <v>0.3611847743002556</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.290582742732624</v>
+        <v>6.360560207955814</v>
       </c>
       <c r="G8">
-        <v>0.0007725623844319485</v>
+        <v>0.000807046722787186</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.900372157003801</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6713512211506725</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1655950438350402</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4182796466677132</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.395377101437816</v>
+        <v>3.462629737875204</v>
       </c>
       <c r="C9">
-        <v>0.8397285215079933</v>
+        <v>0.6475035149685766</v>
       </c>
       <c r="D9">
-        <v>0.1285671188089808</v>
+        <v>0.4565233749696915</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.562140651053681</v>
+        <v>8.361092718711092</v>
       </c>
       <c r="G9">
-        <v>0.0007417128869427164</v>
+        <v>0.0007787029669693633</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2.768109256312187</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9505413388190362</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2034062230336176</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5653890686632295</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.199485464415432</v>
+        <v>4.220789212127499</v>
       </c>
       <c r="C10">
-        <v>1.046536178741974</v>
+        <v>0.7877634419751871</v>
       </c>
       <c r="D10">
-        <v>0.1571804590652199</v>
+        <v>0.5319287691202419</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.42334235492467</v>
+        <v>9.941350910026244</v>
       </c>
       <c r="G10">
-        <v>0.0007184439976966727</v>
+        <v>0.0007581394932023235</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3.519059688839008</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.178583576865876</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.23342942369149</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6824117990525593</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.592540082541632</v>
+        <v>4.583844064767504</v>
       </c>
       <c r="C11">
-        <v>1.14889057429545</v>
+        <v>0.8551513473423711</v>
       </c>
       <c r="D11">
-        <v>0.1725719505762981</v>
+        <v>0.5679342907581315</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.33702608238195</v>
+        <v>10.69473808551288</v>
       </c>
       <c r="G11">
-        <v>0.0007074959379450342</v>
+        <v>0.0007487573209984319</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3.903721274621674</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.290395838180729</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2477483192216567</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.7383747751899463</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.746557089885243</v>
+        <v>4.724497262011937</v>
       </c>
       <c r="C12">
-        <v>1.189247541366569</v>
+        <v>0.8813141069425683</v>
       </c>
       <c r="D12">
-        <v>0.1788875150476201</v>
+        <v>0.5818692285673706</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.6957330230934</v>
+        <v>10.98607537219152</v>
       </c>
       <c r="G12">
-        <v>0.0007032691426602191</v>
+        <v>0.000745191885710775</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.05801039536712</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.334276849003587</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2532832734751054</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.7600401129706285</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.713131372635871</v>
+        <v>4.694053837301112</v>
       </c>
       <c r="C13">
-        <v>1.180476628022205</v>
+        <v>0.8756484664287711</v>
       </c>
       <c r="D13">
-        <v>0.1775025917289703</v>
+        <v>0.5788537249667058</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.61785169981738</v>
+        <v>10.92304222648977</v>
       </c>
       <c r="G13">
-        <v>0.0007041836480426023</v>
+        <v>0.0007459604826700277</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.024346634125365</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.324750158737018</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2520858934921364</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.7553515770030401</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.605098531660303</v>
+        <v>4.595348495254086</v>
       </c>
       <c r="C14">
-        <v>1.152175834827943</v>
+        <v>0.8572900178391194</v>
       </c>
       <c r="D14">
-        <v>0.1730806886557907</v>
+        <v>0.5690743479374589</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.36626046879604</v>
+        <v>10.71857844522197</v>
       </c>
       <c r="G14">
-        <v>0.000707150027227466</v>
+        <v>0.0007484642989366301</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3.916223866028531</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.293972396960058</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2482013118814876</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.7401471868760936</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.539644569726306</v>
+        <v>4.53532029895149</v>
       </c>
       <c r="C15">
-        <v>1.135063641676908</v>
+        <v>0.8461331702861514</v>
       </c>
       <c r="D15">
-        <v>0.1704410751669023</v>
+        <v>0.5631251567263575</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.21392042691298</v>
+        <v>10.5941615828981</v>
       </c>
       <c r="G15">
-        <v>0.0007089554209652006</v>
+        <v>0.0007499960313658282</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3.851210066982134</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.275334389382607</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2458371490223925</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.73089838321917</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.174444367588933</v>
+        <v>4.197473631300454</v>
       </c>
       <c r="C16">
-        <v>1.040045065148917</v>
+        <v>0.7834420153650399</v>
       </c>
       <c r="D16">
-        <v>0.1562333836581367</v>
+        <v>0.5296145000664012</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.36521806315562</v>
+        <v>9.892897718920381</v>
       </c>
       <c r="G16">
-        <v>0.0007191499559033909</v>
+        <v>0.0007587513825967534</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3.494972280422246</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.17146821780787</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2325083893337734</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6788159663687949</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.958150771397015</v>
+        <v>3.995232990623208</v>
       </c>
       <c r="C17">
-        <v>0.9841195286219033</v>
+        <v>0.7459844120162131</v>
       </c>
       <c r="D17">
-        <v>0.1482105080708536</v>
+        <v>0.5095292738606361</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.863598429896655</v>
+        <v>9.472243129066811</v>
       </c>
       <c r="G17">
-        <v>0.0007252936983690143</v>
+        <v>0.0007641097712415952</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3.288886416914963</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.110047462412268</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2245125404541</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.6476168590273588</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.836215313513776</v>
+        <v>3.88057994187335</v>
       </c>
       <c r="C18">
-        <v>0.952700555224169</v>
+        <v>0.7247678977151395</v>
       </c>
       <c r="D18">
-        <v>0.143808048562331</v>
+        <v>0.4981332175353259</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.581154436347816</v>
+        <v>9.233467283208853</v>
       </c>
       <c r="G18">
-        <v>0.0007287954596781331</v>
+        <v>0.000767189765777786</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.174212801997214</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.075451123286712</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2199745516067395</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.6299231363587765</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.79532301099448</v>
+        <v>3.842031964309285</v>
       </c>
       <c r="C19">
-        <v>0.9421809902543714</v>
+        <v>0.7176371950160387</v>
       </c>
       <c r="D19">
-        <v>0.1423504245532214</v>
+        <v>0.4943000547414442</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.486490050627708</v>
+        <v>9.153137264277063</v>
       </c>
       <c r="G19">
-        <v>0.0007299763192210526</v>
+        <v>0.0007682324906312137</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3.135991198497294</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.063853530785579</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2184480590664037</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.6239732659283135</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.980912159392517</v>
+        <v>4.016585261090995</v>
       </c>
       <c r="C20">
-        <v>0.9899930119708529</v>
+        <v>0.7499370295462313</v>
       </c>
       <c r="D20">
-        <v>0.1490417533725541</v>
+        <v>0.5116508218680451</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.916349148305756</v>
+        <v>9.516686896586009</v>
       </c>
       <c r="G20">
-        <v>0.0007246431687393882</v>
+        <v>0.0007635396267597119</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3.310410566396996</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.116507804154722</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2253572801519823</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.6509115239804686</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.636677549210845</v>
+        <v>4.624249520350986</v>
       </c>
       <c r="C21">
-        <v>1.160441050506165</v>
+        <v>0.8626636803057295</v>
       </c>
       <c r="D21">
-        <v>0.1743647787368658</v>
+        <v>0.5719381369414407</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.43978345630768</v>
+        <v>10.77846063640027</v>
       </c>
       <c r="G21">
-        <v>0.000706281215972373</v>
+        <v>0.0007477292868102029</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3.947722995816633</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.302967026109343</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.249339092201339</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7445995117101702</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.096408643644452</v>
+        <v>5.040231920711733</v>
       </c>
       <c r="C22">
-        <v>1.281476451368547</v>
+        <v>0.9401750544836887</v>
       </c>
       <c r="D22">
-        <v>0.1938819850031592</v>
+        <v>0.6131248594601857</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.51196210134896</v>
+        <v>11.6390115949531</v>
       </c>
       <c r="G22">
-        <v>0.0006937852353990388</v>
+        <v>0.0007373174796216116</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.416621401088321</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.434104370240235</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.265680212631878</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8086393158862393</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.847637808222203</v>
+        <v>4.816274015056138</v>
       </c>
       <c r="C23">
-        <v>1.215813728991009</v>
+        <v>0.8984041739529687</v>
       </c>
       <c r="D23">
-        <v>0.1831249494373033</v>
+        <v>0.5909579729882637</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.93135892593386</v>
+        <v>11.17601712825007</v>
       </c>
       <c r="G23">
-        <v>0.0007005128374954256</v>
+        <v>0.0007428849912671096</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.160430306394602</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.363097500464448</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2568908363595455</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7741718181549473</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.970614302563376</v>
+        <v>4.006926901327461</v>
       </c>
       <c r="C24">
-        <v>0.9873353542023722</v>
+        <v>0.7481490689142163</v>
       </c>
       <c r="D24">
-        <v>0.1486653031859468</v>
+        <v>0.5106912030780393</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.892482249648737</v>
+        <v>9.496584404193612</v>
       </c>
       <c r="G24">
-        <v>0.0007249373658973066</v>
+        <v>0.0007637973903785197</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3.300667804202632</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.113584882169008</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2249751910642743</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6494212547773728</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.117086938493685</v>
+        <v>3.196360855200851</v>
       </c>
       <c r="C25">
-        <v>0.7688781199285586</v>
+        <v>0.598303599425293</v>
       </c>
       <c r="D25">
-        <v>0.1194507969128384</v>
+        <v>0.4299491059153269</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.92062514908821</v>
+        <v>7.803595771164993</v>
       </c>
       <c r="G25">
-        <v>0.0007501032284385275</v>
+        <v>0.0007863001356278595</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2.518128452203797</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8718152737766474</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1928349411828592</v>
       </c>
       <c r="M25">
+        <v>0.5242532397298731</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.636987163473577</v>
+        <v>0.8333325649903713</v>
       </c>
       <c r="C2">
-        <v>0.4948052347650389</v>
+        <v>0.1052116482284333</v>
       </c>
       <c r="D2">
-        <v>0.3739001085587006</v>
+        <v>0.1988568660615329</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.627369597189471</v>
+        <v>0.9316797438219311</v>
       </c>
       <c r="G2">
-        <v>0.0008030749600158593</v>
+        <v>0.0008220809955421646</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2015096168144979</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8437580493911412</v>
       </c>
       <c r="L2">
-        <v>0.1706129441302551</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4378083126548944</v>
+        <v>0.3877316294715314</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.147489488039952</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.274918481723432</v>
+        <v>0.7237965549458636</v>
       </c>
       <c r="C3">
-        <v>0.4275157641894793</v>
+        <v>0.09510985966150542</v>
       </c>
       <c r="D3">
-        <v>0.3374011933183425</v>
+        <v>0.1770436866433442</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.861668356433654</v>
+        <v>0.905611125089024</v>
       </c>
       <c r="G3">
-        <v>0.0008146716031697066</v>
+        <v>0.0008260645003553835</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1876353295122897</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7348812633271962</v>
       </c>
       <c r="L3">
-        <v>0.1562444403834249</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3818629766698578</v>
+        <v>0.3385201221429952</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.127671021152111</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.059281217103091</v>
+        <v>0.6567164467021769</v>
       </c>
       <c r="C4">
-        <v>0.3872283928711511</v>
+        <v>0.08889929473355807</v>
       </c>
       <c r="D4">
-        <v>0.3155495595296998</v>
+        <v>0.1637939359887923</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.403627560019231</v>
+        <v>0.8912092639573217</v>
       </c>
       <c r="G4">
-        <v>0.0008219319034548021</v>
+        <v>0.0008285909117805473</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1794094899012251</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6681192435245862</v>
       </c>
       <c r="L4">
-        <v>0.1477055274334518</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3485609697026675</v>
+        <v>0.3085155640856527</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.119551693343936</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.972861526405097</v>
+        <v>0.6294137551844585</v>
       </c>
       <c r="C5">
-        <v>0.3710207809694737</v>
+        <v>0.08636564344806175</v>
       </c>
       <c r="D5">
-        <v>0.3067625889411545</v>
+        <v>0.1584277699181627</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.219570654548193</v>
+        <v>0.8857259592660682</v>
       </c>
       <c r="G5">
-        <v>0.0008249292969371212</v>
+        <v>0.0008296410611377063</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1761267918657836</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6409251286294619</v>
       </c>
       <c r="L5">
-        <v>0.1442895358095981</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3352208175740898</v>
+        <v>0.2963352613465844</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.117218904691441</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.958593355420021</v>
+        <v>0.6248818440876676</v>
       </c>
       <c r="C6">
-        <v>0.3683408735288367</v>
+        <v>0.08594474203190572</v>
       </c>
       <c r="D6">
-        <v>0.3053100106500608</v>
+        <v>0.1575386462615427</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.189152974374707</v>
+        <v>0.884838242719411</v>
       </c>
       <c r="G6">
-        <v>0.0008254294504960722</v>
+        <v>0.000829816693256843</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.175585772669919</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6364099968956225</v>
       </c>
       <c r="L6">
-        <v>0.1437259523369008</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3330187312295152</v>
+        <v>0.294315377749335</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.116889291484583</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.058110120751962</v>
+        <v>0.6563481136898304</v>
       </c>
       <c r="C7">
-        <v>0.387009022131366</v>
+        <v>0.08886513733467893</v>
       </c>
       <c r="D7">
-        <v>0.3154306069589268</v>
+        <v>0.1637214352367948</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.401135336729368</v>
+        <v>0.8911337759904043</v>
       </c>
       <c r="G7">
-        <v>0.0008219721659743578</v>
+        <v>0.0008286049905127865</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1793649428019108</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6677524590594004</v>
       </c>
       <c r="L7">
-        <v>0.1476592097766414</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3483801667157493</v>
+        <v>0.3083511149690992</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.119516335532836</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.510617417677793</v>
+        <v>0.7955212129436973</v>
       </c>
       <c r="C8">
-        <v>0.4713589981120663</v>
+        <v>0.1017297297424307</v>
       </c>
       <c r="D8">
-        <v>0.3611847743002556</v>
+        <v>0.1913040714096184</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.360560207955814</v>
+        <v>0.9223472569549926</v>
       </c>
       <c r="G8">
-        <v>0.000807046722787186</v>
+        <v>0.0008234380221875948</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1966622921228449</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8061924454696907</v>
       </c>
       <c r="L8">
-        <v>0.1655950438350402</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4182796466677132</v>
+        <v>0.3707156371740723</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.139789502774534</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.462629737875204</v>
+        <v>1.070377917699318</v>
       </c>
       <c r="C9">
-        <v>0.6475035149685766</v>
+        <v>0.1269324826926805</v>
       </c>
       <c r="D9">
-        <v>0.4565233749696915</v>
+        <v>0.2466743316159068</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.361092718711092</v>
+        <v>0.9971420493586578</v>
       </c>
       <c r="G9">
-        <v>0.0007787029669693633</v>
+        <v>0.0008139269479630294</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2331136462127006</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.07888885172207</v>
       </c>
       <c r="L9">
-        <v>0.2034062230336176</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5653890686632295</v>
+        <v>0.4950019836189128</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.213696976127409</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.220789212127499</v>
+        <v>1.274325895258841</v>
       </c>
       <c r="C10">
-        <v>0.7877634419751871</v>
+        <v>0.1454941777791277</v>
       </c>
       <c r="D10">
-        <v>0.5319287691202419</v>
+        <v>0.2883476658308979</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.941350910026244</v>
+        <v>1.061643159584506</v>
       </c>
       <c r="G10">
-        <v>0.0007581394932023235</v>
+        <v>0.0008072919798662087</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2617447008184115</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.28075883695692</v>
       </c>
       <c r="L10">
-        <v>0.23342942369149</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6824117990525593</v>
+        <v>0.5879973594132366</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.291809412922561</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.583844064767504</v>
+        <v>1.367743105512147</v>
       </c>
       <c r="C11">
-        <v>0.8551513473423711</v>
+        <v>0.1539629282398352</v>
       </c>
       <c r="D11">
-        <v>0.5679342907581315</v>
+        <v>0.3075721484506744</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.69473808551288</v>
+        <v>1.093362399378364</v>
       </c>
       <c r="G11">
-        <v>0.0007487573209984319</v>
+        <v>0.0008043440670093669</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2752448962466332</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.373112595149053</v>
       </c>
       <c r="L11">
-        <v>0.2477483192216567</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7383747751899463</v>
+        <v>0.6307811763250655</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.333230177213096</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.724497262011937</v>
+        <v>1.403227395019769</v>
       </c>
       <c r="C12">
-        <v>0.8813141069425683</v>
+        <v>0.1571747147370104</v>
       </c>
       <c r="D12">
-        <v>0.5818692285673706</v>
+        <v>0.3148948209018698</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.98607537219152</v>
+        <v>1.105742624904664</v>
       </c>
       <c r="G12">
-        <v>0.000745191885710775</v>
+        <v>0.0008032373549262337</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2804320468540027</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.408176189220285</v>
       </c>
       <c r="L12">
-        <v>0.2532832734751054</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7600401129706285</v>
+        <v>0.6470612304185011</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.34982599803854</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.694053837301112</v>
+        <v>1.395580073673983</v>
       </c>
       <c r="C13">
-        <v>0.8756484664287711</v>
+        <v>0.1564827617931712</v>
       </c>
       <c r="D13">
-        <v>0.5788537249667058</v>
+        <v>0.3133157767789072</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.92304222648977</v>
+        <v>1.103059466848379</v>
       </c>
       <c r="G13">
-        <v>0.0007459604826700277</v>
+        <v>0.000803475286963595</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2793114603540658</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.400620288640937</v>
       </c>
       <c r="L13">
-        <v>0.2520858934921364</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7553515770030401</v>
+        <v>0.6435513636585668</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.346210216347771</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.595348495254086</v>
+        <v>1.370660127539196</v>
       </c>
       <c r="C14">
-        <v>0.8572900178391194</v>
+        <v>0.1542270589086172</v>
       </c>
       <c r="D14">
-        <v>0.5690743479374589</v>
+        <v>0.3081737056079277</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.71857844522197</v>
+        <v>1.094373374337138</v>
       </c>
       <c r="G14">
-        <v>0.0007484642989366301</v>
+        <v>0.0008042528279263439</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2756701057759017</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.375995372726123</v>
       </c>
       <c r="L14">
-        <v>0.2482013118814876</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7401471868760936</v>
+        <v>0.6321189093404129</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.334576889785126</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.53532029895149</v>
+        <v>1.355410695882597</v>
       </c>
       <c r="C15">
-        <v>0.8461331702861514</v>
+        <v>0.1528460474295201</v>
       </c>
       <c r="D15">
-        <v>0.5631251567263575</v>
+        <v>0.3050297446812067</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.5941615828981</v>
+        <v>1.089101759823123</v>
       </c>
       <c r="G15">
-        <v>0.0007499960313658282</v>
+        <v>0.0008047303281489767</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2734496289269401</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.360924282441374</v>
       </c>
       <c r="L15">
-        <v>0.2458371490223925</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.73089838321917</v>
+        <v>0.6251267589559077</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.327571722574305</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.197473631300454</v>
+        <v>1.268235181228789</v>
       </c>
       <c r="C16">
-        <v>0.7834420153650399</v>
+        <v>0.1449413328672762</v>
       </c>
       <c r="D16">
-        <v>0.5296145000664012</v>
+        <v>0.287097041637395</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.892897718920381</v>
+        <v>1.059620332838108</v>
       </c>
       <c r="G16">
-        <v>0.0007587513825967534</v>
+        <v>0.0008074860051565129</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2608725502835796</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.274735160091637</v>
       </c>
       <c r="L16">
-        <v>0.2325083893337734</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6788159663687949</v>
+        <v>0.585211808334634</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.289226306004167</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.995232990623208</v>
+        <v>1.214931611619619</v>
       </c>
       <c r="C17">
-        <v>0.7459844120162131</v>
+        <v>0.1400993035285438</v>
       </c>
       <c r="D17">
-        <v>0.5095292738606361</v>
+        <v>0.2761673275557541</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.472243129066811</v>
+        <v>1.042161916634186</v>
       </c>
       <c r="G17">
-        <v>0.0007641097712415952</v>
+        <v>0.0008091941868347274</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2532832574753456</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.222005750972102</v>
       </c>
       <c r="L17">
-        <v>0.2245125404541</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6476168590273588</v>
+        <v>0.5608548759946927</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.267254612388626</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.88057994187335</v>
+        <v>1.184331970224861</v>
       </c>
       <c r="C18">
-        <v>0.7247678977151395</v>
+        <v>0.1373165618980892</v>
       </c>
       <c r="D18">
-        <v>0.4981332175353259</v>
+        <v>0.2699057035373613</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.233467283208853</v>
+        <v>1.032342338723311</v>
       </c>
       <c r="G18">
-        <v>0.000767189765777786</v>
+        <v>0.0008101833441948091</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2489624634036147</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.191725291902827</v>
       </c>
       <c r="L18">
-        <v>0.2199745516067395</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6299231363587765</v>
+        <v>0.5468899431177334</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.255167081939589</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.842031964309285</v>
+        <v>1.173981116820073</v>
       </c>
       <c r="C19">
-        <v>0.7176371950160387</v>
+        <v>0.136374725610878</v>
       </c>
       <c r="D19">
-        <v>0.4943000547414442</v>
+        <v>0.2677897664839861</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.153137264277063</v>
+        <v>1.029054943786605</v>
       </c>
       <c r="G19">
-        <v>0.0007682324906312137</v>
+        <v>0.0008105194143714794</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.247506946343151</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.18148063827519</v>
       </c>
       <c r="L19">
-        <v>0.2184480590664037</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6239732659283135</v>
+        <v>0.5421690191733148</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.251167037667585</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.016585261090995</v>
+        <v>1.220599624413609</v>
       </c>
       <c r="C20">
-        <v>0.7499370295462313</v>
+        <v>0.1406145024952963</v>
       </c>
       <c r="D20">
-        <v>0.5116508218680451</v>
+        <v>0.2773282108358472</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.516686896586009</v>
+        <v>1.043997225213303</v>
       </c>
       <c r="G20">
-        <v>0.0007635396267597119</v>
+        <v>0.0008090116627172833</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2540865133125578</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.227613795102855</v>
       </c>
       <c r="L20">
-        <v>0.2253572801519823</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6509115239804686</v>
+        <v>0.5634430358789544</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.269536163454859</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.624249520350986</v>
+        <v>1.37797661240856</v>
       </c>
       <c r="C21">
-        <v>0.8626636803057295</v>
+        <v>0.1548894711322788</v>
       </c>
       <c r="D21">
-        <v>0.5719381369414407</v>
+        <v>0.3096828591481113</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.77846063640027</v>
+        <v>1.09691445526343</v>
       </c>
       <c r="G21">
-        <v>0.0007477292868102029</v>
+        <v>0.0008040241890789438</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2767375723569643</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.383225696480309</v>
       </c>
       <c r="L21">
-        <v>0.249339092201339</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7445995117101702</v>
+        <v>0.635474679554946</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.337968629571236</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.040231920711733</v>
+        <v>1.481477104216822</v>
       </c>
       <c r="C22">
-        <v>0.9401750544836887</v>
+        <v>0.1642479518652777</v>
       </c>
       <c r="D22">
-        <v>0.6131248594601857</v>
+        <v>0.3310800967565513</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.6390115949531</v>
+        <v>1.13366276981516</v>
       </c>
       <c r="G22">
-        <v>0.0007373174796216116</v>
+        <v>0.0008008202677481611</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2919814114057715</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.485467248951693</v>
       </c>
       <c r="L22">
-        <v>0.265680212631878</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8086393158862393</v>
+        <v>0.6830156147619988</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.388034579211279</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.816274015056138</v>
+        <v>1.42617186418434</v>
       </c>
       <c r="C23">
-        <v>0.8984041739529687</v>
+        <v>0.1592500568058597</v>
       </c>
       <c r="D23">
-        <v>0.5909579729882637</v>
+        <v>0.3196354379300601</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.17601712825007</v>
+        <v>1.113842071526108</v>
       </c>
       <c r="G23">
-        <v>0.0007428849912671096</v>
+        <v>0.0008025253469724089</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2838029448728463</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.430843910724775</v>
       </c>
       <c r="L23">
-        <v>0.2568908363595455</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7741718181549473</v>
+        <v>0.6575962379249489</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.360802252378107</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.006926901327461</v>
+        <v>1.218036976039542</v>
       </c>
       <c r="C24">
-        <v>0.7481490689142163</v>
+        <v>0.1403815780047779</v>
       </c>
       <c r="D24">
-        <v>0.5106912030780393</v>
+        <v>0.2768033072624547</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.496584404193612</v>
+        <v>1.043166806762855</v>
       </c>
       <c r="G24">
-        <v>0.0007637973903785197</v>
+        <v>0.0008090941597137484</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2537232297944882</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.225078292469505</v>
       </c>
       <c r="L24">
-        <v>0.2249751910642743</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6494212547773728</v>
+        <v>0.5622728105651333</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.268502983672164</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.196360855200851</v>
+        <v>0.9957322206168442</v>
       </c>
       <c r="C25">
-        <v>0.598303599425293</v>
+        <v>0.1201111761744897</v>
       </c>
       <c r="D25">
-        <v>0.4299491059153269</v>
+        <v>0.231537030775101</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.803595771164993</v>
+        <v>0.9753278592192629</v>
       </c>
       <c r="G25">
-        <v>0.0007863001356278595</v>
+        <v>0.0008164360215075739</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2229511236627388</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.00491000347688</v>
       </c>
       <c r="L25">
-        <v>0.1928349411828592</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5242532397298731</v>
+        <v>0.46111968962974</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.18974990318074</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8333325649903713</v>
+        <v>0.339877782745333</v>
       </c>
       <c r="C2">
-        <v>0.1052116482284333</v>
+        <v>0.03220462881643016</v>
       </c>
       <c r="D2">
-        <v>0.1988568660615329</v>
+        <v>0.2303704542396048</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9316797438219311</v>
+        <v>1.724232725430632</v>
       </c>
       <c r="G2">
-        <v>0.0008220809955421646</v>
+        <v>0.002484166947418612</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2015096168144979</v>
+        <v>0.309022512547422</v>
       </c>
       <c r="K2">
-        <v>0.8437580493911412</v>
+        <v>0.2949386773609888</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3877316294715314</v>
+        <v>0.2695704619020916</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.147489488039952</v>
+        <v>4.149581285493582</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7237965549458636</v>
+        <v>0.308052815535433</v>
       </c>
       <c r="C3">
-        <v>0.09510985966150542</v>
+        <v>0.02885977443804677</v>
       </c>
       <c r="D3">
-        <v>0.1770436866433442</v>
+        <v>0.2255462642936834</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.905611125089024</v>
+        <v>1.728584257974674</v>
       </c>
       <c r="G3">
-        <v>0.0008260645003553835</v>
+        <v>0.002486739840041292</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1876353295122897</v>
+        <v>0.3073761614179844</v>
       </c>
       <c r="K3">
-        <v>0.7348812633271962</v>
+        <v>0.2623871385593333</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3385201221429952</v>
+        <v>0.2568595057164842</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.127671021152111</v>
+        <v>4.171451726982724</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6567164467021769</v>
+        <v>0.2885786495893115</v>
       </c>
       <c r="C4">
-        <v>0.08889929473355807</v>
+        <v>0.02679389792907472</v>
       </c>
       <c r="D4">
-        <v>0.1637939359887923</v>
+        <v>0.2226794944728141</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8912092639573217</v>
+        <v>1.732099630468639</v>
       </c>
       <c r="G4">
-        <v>0.0008285909117805473</v>
+        <v>0.002488404259369859</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1794094899012251</v>
+        <v>0.3065196435658066</v>
       </c>
       <c r="K4">
-        <v>0.6681192435245862</v>
+        <v>0.242413613616506</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3085155640856527</v>
+        <v>0.2491664214036362</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.119551693343936</v>
+        <v>4.186931279578786</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6294137551844585</v>
+        <v>0.280659925413687</v>
       </c>
       <c r="C5">
-        <v>0.08636564344806175</v>
+        <v>0.02594903660660464</v>
       </c>
       <c r="D5">
-        <v>0.1584277699181627</v>
+        <v>0.2215353315272353</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8857259592660682</v>
+        <v>1.73374438013262</v>
       </c>
       <c r="G5">
-        <v>0.0008296410611377063</v>
+        <v>0.002489103873530348</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1761267918657836</v>
+        <v>0.3062094421178188</v>
       </c>
       <c r="K5">
-        <v>0.6409251286294619</v>
+        <v>0.2342780105601605</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2963352613465844</v>
+        <v>0.2460596383375844</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.117218904691441</v>
+        <v>4.193755105723639</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6248818440876676</v>
+        <v>0.2793460764014242</v>
       </c>
       <c r="C6">
-        <v>0.08594474203190572</v>
+        <v>0.02580856827569278</v>
       </c>
       <c r="D6">
-        <v>0.1575386462615427</v>
+        <v>0.2213468009315847</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.884838242719411</v>
+        <v>1.73403030923874</v>
       </c>
       <c r="G6">
-        <v>0.000829816693256843</v>
+        <v>0.002489221335188177</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.175585772669919</v>
+        <v>0.3061602797574068</v>
       </c>
       <c r="K6">
-        <v>0.6364099968956225</v>
+        <v>0.2329273405536298</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.294315377749335</v>
+        <v>0.2455454684367453</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.116889291484583</v>
+        <v>4.194919350047783</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6563481136898304</v>
+        <v>0.2884717848591265</v>
       </c>
       <c r="C7">
-        <v>0.08886513733467893</v>
+        <v>0.02678251591699166</v>
       </c>
       <c r="D7">
-        <v>0.1637214352367948</v>
+        <v>0.2226639662978158</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8911337759904043</v>
+        <v>1.732120952792009</v>
       </c>
       <c r="G7">
-        <v>0.0008286049905127865</v>
+        <v>0.002488413608064693</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1793649428019108</v>
+        <v>0.3065153028002996</v>
       </c>
       <c r="K7">
-        <v>0.6677524590594004</v>
+        <v>0.2423038781791576</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3083511149690992</v>
+        <v>0.2491244077814301</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.119516335532836</v>
+        <v>4.187021219655151</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7955212129436973</v>
+        <v>0.3288909847579191</v>
       </c>
       <c r="C8">
-        <v>0.1017297297424307</v>
+        <v>0.03105386698635471</v>
       </c>
       <c r="D8">
-        <v>0.1913040714096184</v>
+        <v>0.228687354216035</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9223472569549926</v>
+        <v>1.725558118520027</v>
       </c>
       <c r="G8">
-        <v>0.0008234380221875948</v>
+        <v>0.002485036549072427</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1966622921228449</v>
+        <v>0.3084228290037387</v>
       </c>
       <c r="K8">
-        <v>0.8061924454696907</v>
+        <v>0.2837124087326117</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3707156371740723</v>
+        <v>0.2651646840799771</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.139789502774534</v>
+        <v>4.156696545142836</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.070377917699318</v>
+        <v>0.4086654251378832</v>
       </c>
       <c r="C9">
-        <v>0.1269324826926805</v>
+        <v>0.03933205527995653</v>
       </c>
       <c r="D9">
-        <v>0.2466743316159068</v>
+        <v>0.2412516033652281</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9971420493586578</v>
+        <v>1.719378503299083</v>
       </c>
       <c r="G9">
-        <v>0.0008139269479630294</v>
+        <v>0.002479082942706391</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2331136462127006</v>
+        <v>0.3133876729462344</v>
       </c>
       <c r="K9">
-        <v>1.07888885172207</v>
+        <v>0.3650043777568044</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4950019836189128</v>
+        <v>0.2974984095796245</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.213696976127409</v>
+        <v>4.113504442957947</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.274325895258841</v>
+        <v>0.4675739282299958</v>
       </c>
       <c r="C10">
-        <v>0.1454941777791277</v>
+        <v>0.04535259879959597</v>
       </c>
       <c r="D10">
-        <v>0.2883476658308979</v>
+        <v>0.2509373657687632</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.061643159584506</v>
+        <v>1.718915229736609</v>
       </c>
       <c r="G10">
-        <v>0.0008072919798662087</v>
+        <v>0.002475112495675511</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2617447008184115</v>
+        <v>0.3177818330127309</v>
       </c>
       <c r="K10">
-        <v>1.28075883695692</v>
+        <v>0.4247700482792425</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5879973594132366</v>
+        <v>0.3217845540137318</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.291809412922561</v>
+        <v>4.09169688445607</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.367743105512147</v>
+        <v>0.4944350607725312</v>
       </c>
       <c r="C11">
-        <v>0.1539629282398352</v>
+        <v>0.04807782827298013</v>
       </c>
       <c r="D11">
-        <v>0.3075721484506744</v>
+        <v>0.2554416812344442</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.093362399378364</v>
+        <v>1.71958956267072</v>
       </c>
       <c r="G11">
-        <v>0.0008043440670093669</v>
+        <v>0.002473393027996912</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2752448962466332</v>
+        <v>0.3199430398515233</v>
       </c>
       <c r="K11">
-        <v>1.373112595149053</v>
+        <v>0.4519651265108848</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6307811763250655</v>
+        <v>0.332947227839874</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.333230177213096</v>
+        <v>4.083932532823212</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.403227395019769</v>
+        <v>0.5046154284423778</v>
       </c>
       <c r="C12">
-        <v>0.1571747147370104</v>
+        <v>0.04910781367222228</v>
       </c>
       <c r="D12">
-        <v>0.3148948209018698</v>
+        <v>0.2571613828896773</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.105742624904664</v>
+        <v>1.719972135816207</v>
       </c>
       <c r="G12">
-        <v>0.0008032373549262337</v>
+        <v>0.002472754313770475</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2804320468540027</v>
+        <v>0.3207847588999329</v>
       </c>
       <c r="K12">
-        <v>1.408176189220285</v>
+        <v>0.4622638987468122</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6470612304185011</v>
+        <v>0.3371906098960622</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.34982599803854</v>
+        <v>4.081302462468955</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.395580073673983</v>
+        <v>0.5024225273463969</v>
       </c>
       <c r="C13">
-        <v>0.1564827617931712</v>
+        <v>0.04888607765535369</v>
       </c>
       <c r="D13">
-        <v>0.3133157767789072</v>
+        <v>0.256790392758333</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.103059466848379</v>
+        <v>1.719884084679151</v>
       </c>
       <c r="G13">
-        <v>0.000803475286963595</v>
+        <v>0.002472891321087945</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2793114603540658</v>
+        <v>0.3206024429194798</v>
       </c>
       <c r="K13">
-        <v>1.400620288640937</v>
+        <v>0.4600458553298381</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6435513636585668</v>
+        <v>0.3362759987835844</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.346210216347771</v>
+        <v>4.08185510105227</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.370660127539196</v>
+        <v>0.4952724352880296</v>
       </c>
       <c r="C14">
-        <v>0.1542270589086172</v>
+        <v>0.04816260616784973</v>
       </c>
       <c r="D14">
-        <v>0.3081737056079277</v>
+        <v>0.2555828818577908</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.094373374337138</v>
+        <v>1.719618487875962</v>
       </c>
       <c r="G14">
-        <v>0.0008042528279263439</v>
+        <v>0.002473340231853266</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2756701057759017</v>
+        <v>0.3200118213871832</v>
       </c>
       <c r="K14">
-        <v>1.375995372726123</v>
+        <v>0.4528124036594363</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6321189093404129</v>
+        <v>0.3332960074291051</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.334576889785126</v>
+        <v>4.083709939558304</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.355410695882597</v>
+        <v>0.4908939086374744</v>
       </c>
       <c r="C15">
-        <v>0.1528460474295201</v>
+        <v>0.04771919701734362</v>
       </c>
       <c r="D15">
-        <v>0.3050297446812067</v>
+        <v>0.2548450685509636</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.089101759823123</v>
+        <v>1.719472368041522</v>
       </c>
       <c r="G15">
-        <v>0.0008047303281489767</v>
+        <v>0.002473616817428</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2734496289269401</v>
+        <v>0.3196530846317955</v>
       </c>
       <c r="K15">
-        <v>1.360924282441374</v>
+        <v>0.4483817679657989</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6251267589559077</v>
+        <v>0.3314727964695194</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.327571722574305</v>
+        <v>4.084886471241532</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.268235181228789</v>
+        <v>0.4658197246775444</v>
       </c>
       <c r="C16">
-        <v>0.1449413328672762</v>
+        <v>0.04517422161373474</v>
       </c>
       <c r="D16">
-        <v>0.287097041637395</v>
+        <v>0.2506449652464369</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.059620332838108</v>
+        <v>1.718888965816973</v>
       </c>
       <c r="G16">
-        <v>0.0008074860051565129</v>
+        <v>0.002475226606844657</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2608725502835796</v>
+        <v>0.317643856963457</v>
       </c>
       <c r="K16">
-        <v>1.274735160091637</v>
+        <v>0.4229928937823786</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.585211808334634</v>
+        <v>0.3210573408708015</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.289226306004167</v>
+        <v>4.092247695238342</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.214931611619619</v>
+        <v>0.4504534169789451</v>
       </c>
       <c r="C17">
-        <v>0.1400993035285438</v>
+        <v>0.04360945508801706</v>
       </c>
       <c r="D17">
-        <v>0.2761673275557541</v>
+        <v>0.2480934159931536</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.042161916634186</v>
+        <v>1.718757718061667</v>
       </c>
       <c r="G17">
-        <v>0.0008091941868347274</v>
+        <v>0.002476236327359179</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2532832574753456</v>
+        <v>0.316452811590139</v>
       </c>
       <c r="K17">
-        <v>1.222005750972102</v>
+        <v>0.4074191926971196</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5608548759946927</v>
+        <v>0.3146970628242443</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.267254612388626</v>
+        <v>4.097315838413095</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.184331970224861</v>
+        <v>0.4416211149366802</v>
       </c>
       <c r="C18">
-        <v>0.1373165618980892</v>
+        <v>0.04270817083991574</v>
       </c>
       <c r="D18">
-        <v>0.2699057035373613</v>
+        <v>0.2466350831160895</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.032342338723311</v>
+        <v>1.718765538919186</v>
       </c>
       <c r="G18">
-        <v>0.0008101833441948091</v>
+        <v>0.002476825256943378</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2489624634036147</v>
+        <v>0.3157830296286761</v>
       </c>
       <c r="K18">
-        <v>1.191725291902827</v>
+        <v>0.3984623341272879</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5468899431177334</v>
+        <v>0.3110496143289581</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.255167081939589</v>
+        <v>4.100433829472848</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.173981116820073</v>
+        <v>0.4386316926920415</v>
       </c>
       <c r="C19">
-        <v>0.136374725610878</v>
+        <v>0.04240279461397733</v>
       </c>
       <c r="D19">
-        <v>0.2677897664839861</v>
+        <v>0.2461429087770597</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.029054943786605</v>
+        <v>1.718782497369389</v>
       </c>
       <c r="G19">
-        <v>0.0008105194143714794</v>
+        <v>0.002477026062292279</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.247506946343151</v>
+        <v>0.3155588771786455</v>
       </c>
       <c r="K19">
-        <v>1.18148063827519</v>
+        <v>0.3954298342666789</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5421690191733148</v>
+        <v>0.3098165141408984</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.251167037667585</v>
+        <v>4.101524378251298</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.220599624413609</v>
+        <v>0.4520885699641326</v>
       </c>
       <c r="C20">
-        <v>0.1406145024952963</v>
+        <v>0.04377615917421451</v>
       </c>
       <c r="D20">
-        <v>0.2773282108358472</v>
+        <v>0.2483640761288513</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.043997225213303</v>
+        <v>1.718763067620444</v>
       </c>
       <c r="G20">
-        <v>0.0008090116627172833</v>
+        <v>0.002476127996310973</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2540865133125578</v>
+        <v>0.3165780195493113</v>
       </c>
       <c r="K20">
-        <v>1.227613795102855</v>
+        <v>0.409076968441866</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5634430358789544</v>
+        <v>0.3153730072962517</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.269536163454859</v>
+        <v>4.096755322863203</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.37797661240856</v>
+        <v>0.4973723599146354</v>
       </c>
       <c r="C21">
-        <v>0.1548894711322788</v>
+        <v>0.04837516196911906</v>
       </c>
       <c r="D21">
-        <v>0.3096828591481113</v>
+        <v>0.255937177571596</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.09691445526343</v>
+        <v>1.719693047880924</v>
       </c>
       <c r="G21">
-        <v>0.0008040241890789438</v>
+        <v>0.002473208039601354</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2767375723569643</v>
+        <v>0.3201846685851564</v>
       </c>
       <c r="K21">
-        <v>1.383225696480309</v>
+        <v>0.4549370316132695</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.635474679554946</v>
+        <v>0.3341708616955401</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.337968629571236</v>
+        <v>4.083156711225655</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.481477104216822</v>
+        <v>0.5270180758039658</v>
       </c>
       <c r="C22">
-        <v>0.1642479518652777</v>
+        <v>0.05136919561479658</v>
       </c>
       <c r="D22">
-        <v>0.3310800967565513</v>
+        <v>0.2609682781682778</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.13366276981516</v>
+        <v>1.721042341034433</v>
       </c>
       <c r="G22">
-        <v>0.0008008202677481611</v>
+        <v>0.002471371993675229</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2919814114057715</v>
+        <v>0.3226777222059667</v>
       </c>
       <c r="K22">
-        <v>1.485467248951693</v>
+        <v>0.4849124328197547</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6830156147619988</v>
+        <v>0.3465513839245773</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.388034579211279</v>
+        <v>4.076076896261611</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.42617186418434</v>
+        <v>0.5111911666663502</v>
       </c>
       <c r="C23">
-        <v>0.1592500568058597</v>
+        <v>0.04977230934748889</v>
       </c>
       <c r="D23">
-        <v>0.3196354379300601</v>
+        <v>0.2582756505417336</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.113842071526108</v>
+        <v>1.720254369223127</v>
       </c>
       <c r="G23">
-        <v>0.0008025253469724089</v>
+        <v>0.00247234532795189</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2838029448728463</v>
+        <v>0.321334704005821</v>
       </c>
       <c r="K23">
-        <v>1.430843910724775</v>
+        <v>0.4689138605355936</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6575962379249489</v>
+        <v>0.3399350317034191</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.360802252378107</v>
+        <v>4.079690096261402</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.218036976039542</v>
+        <v>0.4513493110570437</v>
       </c>
       <c r="C24">
-        <v>0.1403815780047779</v>
+        <v>0.04370079748329658</v>
       </c>
       <c r="D24">
-        <v>0.2768033072624547</v>
+        <v>0.2482416839274748</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.043166806762855</v>
+        <v>1.718760389675907</v>
       </c>
       <c r="G24">
-        <v>0.0008090941597137484</v>
+        <v>0.002476176946593726</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2537232297944882</v>
+        <v>0.3165213664130846</v>
       </c>
       <c r="K24">
-        <v>1.225078292469505</v>
+        <v>0.4083274983667877</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5622728105651333</v>
+        <v>0.3150673842549381</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.268502983672164</v>
+        <v>4.097008095720241</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9957322206168442</v>
+        <v>0.3870309338013271</v>
       </c>
       <c r="C25">
-        <v>0.1201111761744897</v>
+        <v>0.03710325106163737</v>
       </c>
       <c r="D25">
-        <v>0.231537030775101</v>
+        <v>0.2377724924019162</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9753278592192629</v>
+        <v>1.720334194409617</v>
       </c>
       <c r="G25">
-        <v>0.0008164360215075739</v>
+        <v>0.002480622371999392</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2229511236627388</v>
+        <v>0.3119134730981941</v>
       </c>
       <c r="K25">
-        <v>1.00491000347688</v>
+        <v>0.3430046099381343</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.46111968962974</v>
+        <v>0.2886577361006886</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.18974990318074</v>
+        <v>4.123446308897456</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.339877782745333</v>
+        <v>0.8333325649902861</v>
       </c>
       <c r="C2">
-        <v>0.03220462881643016</v>
+        <v>0.1052116482284475</v>
       </c>
       <c r="D2">
-        <v>0.2303704542396048</v>
+        <v>0.1988568660614902</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.724232725430632</v>
+        <v>0.9316797438219311</v>
       </c>
       <c r="G2">
-        <v>0.002484166947418612</v>
+        <v>0.0008220809955422642</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.309022512547422</v>
+        <v>0.2015096168144979</v>
       </c>
       <c r="K2">
-        <v>0.2949386773609888</v>
+        <v>0.843758049391198</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2695704619020916</v>
+        <v>0.3877316294715385</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.149581285493582</v>
+        <v>2.14748948803998</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.308052815535433</v>
+        <v>0.7237965549457783</v>
       </c>
       <c r="C3">
-        <v>0.02885977443804677</v>
+        <v>0.09510985966126384</v>
       </c>
       <c r="D3">
-        <v>0.2255462642936834</v>
+        <v>0.1770436866432874</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.728584257974674</v>
+        <v>0.9056111250890311</v>
       </c>
       <c r="G3">
-        <v>0.002486739840041292</v>
+        <v>0.0008260645003548044</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3073761614179844</v>
+        <v>0.1876353295122755</v>
       </c>
       <c r="K3">
-        <v>0.2623871385593333</v>
+        <v>0.7348812633272956</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2568595057164842</v>
+        <v>0.338520122142981</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.171451726982724</v>
+        <v>2.127671021152111</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2885786495893115</v>
+        <v>0.6567164467022906</v>
       </c>
       <c r="C4">
-        <v>0.02679389792907472</v>
+        <v>0.08889929473356517</v>
       </c>
       <c r="D4">
-        <v>0.2226794944728141</v>
+        <v>0.1637939359886929</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.732099630468639</v>
+        <v>0.8912092639572933</v>
       </c>
       <c r="G4">
-        <v>0.002488404259369859</v>
+        <v>0.0008285909118396749</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3065196435658066</v>
+        <v>0.1794094899012322</v>
       </c>
       <c r="K4">
-        <v>0.242413613616506</v>
+        <v>0.6681192435245862</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2491664214036362</v>
+        <v>0.3085155640856598</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.186931279578786</v>
+        <v>2.11955169334388</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.280659925413687</v>
+        <v>0.6294137551844585</v>
       </c>
       <c r="C5">
-        <v>0.02594903660660464</v>
+        <v>0.08636564344807596</v>
       </c>
       <c r="D5">
-        <v>0.2215353315272353</v>
+        <v>0.1584277699180916</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.73374438013262</v>
+        <v>0.8857259592660611</v>
       </c>
       <c r="G5">
-        <v>0.002489103873530348</v>
+        <v>0.0008296410611389111</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3062094421178188</v>
+        <v>0.1761267918659115</v>
       </c>
       <c r="K5">
-        <v>0.2342780105601605</v>
+        <v>0.6409251286293767</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2460596383375844</v>
+        <v>0.2963352613465631</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.193755105723639</v>
+        <v>2.117218904691285</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2793460764014242</v>
+        <v>0.6248818440874686</v>
       </c>
       <c r="C6">
-        <v>0.02580856827569278</v>
+        <v>0.08594474203191993</v>
       </c>
       <c r="D6">
-        <v>0.2213468009315847</v>
+        <v>0.1575386462614006</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.73403030923874</v>
+        <v>0.8848382427194039</v>
       </c>
       <c r="G6">
-        <v>0.002489221335188177</v>
+        <v>0.0008298166933174794</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3061602797574068</v>
+        <v>0.1755857726699332</v>
       </c>
       <c r="K6">
-        <v>0.2329273405536298</v>
+        <v>0.6364099968956367</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2455454684367453</v>
+        <v>0.2943153777493706</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.194919350047783</v>
+        <v>2.116889291484569</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2884717848591265</v>
+        <v>0.6563481136897451</v>
       </c>
       <c r="C7">
-        <v>0.02678251591699166</v>
+        <v>0.08886513733468604</v>
       </c>
       <c r="D7">
-        <v>0.2226639662978158</v>
+        <v>0.1637214352368659</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.732120952792009</v>
+        <v>0.8911337759903759</v>
       </c>
       <c r="G7">
-        <v>0.002488413608064693</v>
+        <v>0.0008286049904922087</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3065153028002996</v>
+        <v>0.1793649428020032</v>
       </c>
       <c r="K7">
-        <v>0.2423038781791576</v>
+        <v>0.6677524590594857</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2491244077814301</v>
+        <v>0.3083511149690992</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.187021219655151</v>
+        <v>2.119516335532751</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3288909847579191</v>
+        <v>0.795521212943811</v>
       </c>
       <c r="C8">
-        <v>0.03105386698635471</v>
+        <v>0.1017297297425301</v>
       </c>
       <c r="D8">
-        <v>0.228687354216035</v>
+        <v>0.1913040714096326</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.725558118520027</v>
+        <v>0.9223472569549926</v>
       </c>
       <c r="G8">
-        <v>0.002485036549072427</v>
+        <v>0.0008234380221302322</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3084228290037387</v>
+        <v>0.1966622921228875</v>
       </c>
       <c r="K8">
-        <v>0.2837124087326117</v>
+        <v>0.8061924454696054</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2651646840799771</v>
+        <v>0.3707156371740652</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.156696545142836</v>
+        <v>2.139789502774534</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4086654251378832</v>
+        <v>1.070377917699403</v>
       </c>
       <c r="C9">
-        <v>0.03933205527995653</v>
+        <v>0.1269324826925953</v>
       </c>
       <c r="D9">
-        <v>0.2412516033652281</v>
+        <v>0.2466743316160205</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.719378503299083</v>
+        <v>0.9971420493586294</v>
       </c>
       <c r="G9">
-        <v>0.002479082942706391</v>
+        <v>0.0008139269479640742</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3133876729462344</v>
+        <v>0.2331136462126864</v>
       </c>
       <c r="K9">
-        <v>0.3650043777568044</v>
+        <v>1.078888851722098</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2974984095796245</v>
+        <v>0.4950019836189199</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.113504442957947</v>
+        <v>2.21369697612738</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4675739282299958</v>
+        <v>1.274325895258897</v>
       </c>
       <c r="C10">
-        <v>0.04535259879959597</v>
+        <v>0.1454941777792129</v>
       </c>
       <c r="D10">
-        <v>0.2509373657687632</v>
+        <v>0.28834766583077</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.718915229736609</v>
+        <v>1.061643159584506</v>
       </c>
       <c r="G10">
-        <v>0.002475112495675511</v>
+        <v>0.0008072919798093403</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3177818330127309</v>
+        <v>0.2617447008184115</v>
       </c>
       <c r="K10">
-        <v>0.4247700482792425</v>
+        <v>1.280758836956863</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3217845540137318</v>
+        <v>0.5879973594132224</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.09169688445607</v>
+        <v>2.291809412922589</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4944350607725312</v>
+        <v>1.367743105512005</v>
       </c>
       <c r="C11">
-        <v>0.04807782827298013</v>
+        <v>0.1539629282398636</v>
       </c>
       <c r="D11">
-        <v>0.2554416812344442</v>
+        <v>0.3075721484506317</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.71958956267072</v>
+        <v>1.09336239937835</v>
       </c>
       <c r="G11">
-        <v>0.002473393027996912</v>
+        <v>0.000804344067009066</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3199430398515233</v>
+        <v>0.2752448962465905</v>
       </c>
       <c r="K11">
-        <v>0.4519651265108848</v>
+        <v>1.373112595149109</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.332947227839874</v>
+        <v>0.6307811763250584</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.083932532823212</v>
+        <v>2.333230177213153</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5046154284423778</v>
+        <v>1.403227395019826</v>
       </c>
       <c r="C12">
-        <v>0.04910781367222228</v>
+        <v>0.1571747147373657</v>
       </c>
       <c r="D12">
-        <v>0.2571613828896773</v>
+        <v>0.3148948209018414</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.719972135816207</v>
+        <v>1.105742624904693</v>
       </c>
       <c r="G12">
-        <v>0.002472754313770475</v>
+        <v>0.0008032373549825622</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3207847588999329</v>
+        <v>0.280432046854088</v>
       </c>
       <c r="K12">
-        <v>0.4622638987468122</v>
+        <v>1.408176189220313</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3371906098960622</v>
+        <v>0.6470612304185224</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.081302462468955</v>
+        <v>2.349825998038597</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5024225273463969</v>
+        <v>1.395580073674012</v>
       </c>
       <c r="C13">
-        <v>0.04888607765535369</v>
+        <v>0.1564827617931712</v>
       </c>
       <c r="D13">
-        <v>0.256790392758333</v>
+        <v>0.3133157767789072</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.719884084679151</v>
+        <v>1.103059466848364</v>
       </c>
       <c r="G13">
-        <v>0.002472891321087945</v>
+        <v>0.0008034752869637611</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3206024429194798</v>
+        <v>0.279311460354009</v>
       </c>
       <c r="K13">
-        <v>0.4600458553298381</v>
+        <v>1.400620288640908</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3362759987835844</v>
+        <v>0.6435513636585881</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.08185510105227</v>
+        <v>2.346210216347686</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4952724352880296</v>
+        <v>1.370660127539082</v>
       </c>
       <c r="C14">
-        <v>0.04816260616784973</v>
+        <v>0.1542270589083614</v>
       </c>
       <c r="D14">
-        <v>0.2555828818577908</v>
+        <v>0.3081737056079277</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.719618487875962</v>
+        <v>1.094373374337124</v>
       </c>
       <c r="G14">
-        <v>0.002473340231853266</v>
+        <v>0.0008042528278677388</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3200118213871832</v>
+        <v>0.2756701057759727</v>
       </c>
       <c r="K14">
-        <v>0.4528124036594363</v>
+        <v>1.375995372726095</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3332960074291051</v>
+        <v>0.6321189093404129</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.083709939558304</v>
+        <v>2.334576889785097</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4908939086374744</v>
+        <v>1.355410695882483</v>
       </c>
       <c r="C15">
-        <v>0.04771919701734362</v>
+        <v>0.1528460474292785</v>
       </c>
       <c r="D15">
-        <v>0.2548450685509636</v>
+        <v>0.3050297446811499</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.719472368041522</v>
+        <v>1.089101759823123</v>
       </c>
       <c r="G15">
-        <v>0.002473616817428</v>
+        <v>0.0008047303281484761</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3196530846317955</v>
+        <v>0.2734496289269543</v>
       </c>
       <c r="K15">
-        <v>0.4483817679657989</v>
+        <v>1.360924282441431</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3314727964695194</v>
+        <v>0.6251267589559077</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.084886471241532</v>
+        <v>2.327571722574362</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4658197246775444</v>
+        <v>1.268235181228619</v>
       </c>
       <c r="C16">
-        <v>0.04517422161373474</v>
+        <v>0.1449413328671625</v>
       </c>
       <c r="D16">
-        <v>0.2506449652464369</v>
+        <v>0.2870970416375656</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.718888965816973</v>
+        <v>1.059620332838108</v>
       </c>
       <c r="G16">
-        <v>0.002475226606844657</v>
+        <v>0.0008074860051545905</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.317643856963457</v>
+        <v>0.2608725502837217</v>
       </c>
       <c r="K16">
-        <v>0.4229928937823786</v>
+        <v>1.274735160091609</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3210573408708015</v>
+        <v>0.585211808334634</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.092247695238342</v>
+        <v>2.289226306004224</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4504534169789451</v>
+        <v>1.214931611619676</v>
       </c>
       <c r="C17">
-        <v>0.04360945508801706</v>
+        <v>0.1400993035291123</v>
       </c>
       <c r="D17">
-        <v>0.2480934159931536</v>
+        <v>0.2761673275555552</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.718757718061667</v>
+        <v>1.042161916634186</v>
       </c>
       <c r="G17">
-        <v>0.002476236327359179</v>
+        <v>0.0008091941868349068</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.316452811590139</v>
+        <v>0.2532832574753456</v>
       </c>
       <c r="K17">
-        <v>0.4074191926971196</v>
+        <v>1.222005750972158</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3146970628242443</v>
+        <v>0.5608548759946999</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.097315838413095</v>
+        <v>2.267254612388655</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4416211149366802</v>
+        <v>1.184331970224861</v>
       </c>
       <c r="C18">
-        <v>0.04270817083991574</v>
+        <v>0.1373165618980892</v>
       </c>
       <c r="D18">
-        <v>0.2466350831160895</v>
+        <v>0.2699057035373613</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.718765538919186</v>
+        <v>1.032342338723311</v>
       </c>
       <c r="G18">
-        <v>0.002476825256943378</v>
+        <v>0.0008101833441391206</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3157830296286761</v>
+        <v>0.2489624634035863</v>
       </c>
       <c r="K18">
-        <v>0.3984623341272879</v>
+        <v>1.191725291902856</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3110496143289581</v>
+        <v>0.5468899431177405</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.100433829472848</v>
+        <v>2.255167081939589</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4386316926920415</v>
+        <v>1.173981116819903</v>
       </c>
       <c r="C19">
-        <v>0.04240279461397733</v>
+        <v>0.1363747256106365</v>
       </c>
       <c r="D19">
-        <v>0.2461429087770597</v>
+        <v>0.2677897664840003</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.718782497369389</v>
+        <v>1.029054943786605</v>
       </c>
       <c r="G19">
-        <v>0.002477026062292279</v>
+        <v>0.0008105194143754765</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3155588771786455</v>
+        <v>0.2475069463429946</v>
       </c>
       <c r="K19">
-        <v>0.3954298342666789</v>
+        <v>1.181480638275133</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3098165141408984</v>
+        <v>0.5421690191733148</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.101524378251298</v>
+        <v>2.251167037667528</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4520885699641326</v>
+        <v>1.220599624413495</v>
       </c>
       <c r="C20">
-        <v>0.04377615917421451</v>
+        <v>0.1406145024950689</v>
       </c>
       <c r="D20">
-        <v>0.2483640761288513</v>
+        <v>0.2773282108360036</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.718763067620444</v>
+        <v>1.043997225213332</v>
       </c>
       <c r="G20">
-        <v>0.002476127996310973</v>
+        <v>0.000809011662744224</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3165780195493113</v>
+        <v>0.2540865133124726</v>
       </c>
       <c r="K20">
-        <v>0.409076968441866</v>
+        <v>1.227613795102826</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3153730072962517</v>
+        <v>0.5634430358789402</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.096755322863203</v>
+        <v>2.269536163454802</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4973723599146354</v>
+        <v>1.377976612408474</v>
       </c>
       <c r="C21">
-        <v>0.04837516196911906</v>
+        <v>0.1548894711322788</v>
       </c>
       <c r="D21">
-        <v>0.255937177571596</v>
+        <v>0.3096828591481113</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.719693047880924</v>
+        <v>1.096914455263416</v>
       </c>
       <c r="G21">
-        <v>0.002473208039601354</v>
+        <v>0.0008040241891076285</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3201846685851564</v>
+        <v>0.2767375723569501</v>
       </c>
       <c r="K21">
-        <v>0.4549370316132695</v>
+        <v>1.383225696480366</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3341708616955401</v>
+        <v>0.6354746795549246</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.083156711225655</v>
+        <v>2.337968629571293</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5270180758039658</v>
+        <v>1.481477104216822</v>
       </c>
       <c r="C22">
-        <v>0.05136919561479658</v>
+        <v>0.1642479518654056</v>
       </c>
       <c r="D22">
-        <v>0.2609682781682778</v>
+        <v>0.3310800967566081</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.721042341034433</v>
+        <v>1.13366276981516</v>
       </c>
       <c r="G22">
-        <v>0.002471371993675229</v>
+        <v>0.0008008202677199569</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3226777222059667</v>
+        <v>0.2919814114057573</v>
       </c>
       <c r="K22">
-        <v>0.4849124328197547</v>
+        <v>1.485467248951608</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3465513839245773</v>
+        <v>0.6830156147620059</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.076076896261611</v>
+        <v>2.388034579211308</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5111911666663502</v>
+        <v>1.426171864184425</v>
       </c>
       <c r="C23">
-        <v>0.04977230934748889</v>
+        <v>0.1592500568056323</v>
       </c>
       <c r="D23">
-        <v>0.2582756505417336</v>
+        <v>0.3196354379302164</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.720254369223127</v>
+        <v>1.113842071526136</v>
       </c>
       <c r="G23">
-        <v>0.00247234532795189</v>
+        <v>0.000802525346999335</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.321334704005821</v>
+        <v>0.2838029448727042</v>
       </c>
       <c r="K23">
-        <v>0.4689138605355936</v>
+        <v>1.430843910724718</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3399350317034191</v>
+        <v>0.6575962379249276</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.079690096261402</v>
+        <v>2.360802252378022</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4513493110570437</v>
+        <v>1.218036976039713</v>
       </c>
       <c r="C24">
-        <v>0.04370079748329658</v>
+        <v>0.1403815780053463</v>
       </c>
       <c r="D24">
-        <v>0.2482416839274748</v>
+        <v>0.2768033072624547</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.718760389675907</v>
+        <v>1.043166806762869</v>
       </c>
       <c r="G24">
-        <v>0.002476176946593726</v>
+        <v>0.0008090941596869347</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3165213664130846</v>
+        <v>0.2537232297944598</v>
       </c>
       <c r="K24">
-        <v>0.4083274983667877</v>
+        <v>1.225078292469533</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3150673842549381</v>
+        <v>0.5622728105651404</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.097008095720241</v>
+        <v>2.268502983672192</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3870309338013271</v>
+        <v>0.9957322206168442</v>
       </c>
       <c r="C25">
-        <v>0.03710325106163737</v>
+        <v>0.120111176174504</v>
       </c>
       <c r="D25">
-        <v>0.2377724924019162</v>
+        <v>0.2315370307751152</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.720334194409617</v>
+        <v>0.9753278592192629</v>
       </c>
       <c r="G25">
-        <v>0.002480622371999392</v>
+        <v>0.0008164360214783293</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3119134730981941</v>
+        <v>0.2229511236628099</v>
       </c>
       <c r="K25">
-        <v>0.3430046099381343</v>
+        <v>1.004910003476937</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2886577361006886</v>
+        <v>0.46111968962974</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.123446308897456</v>
+        <v>2.189749903180825</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8333325649902861</v>
+        <v>2.636238788035826</v>
       </c>
       <c r="C2">
-        <v>0.1052116482284475</v>
+        <v>0.7279362379969427</v>
       </c>
       <c r="D2">
-        <v>0.1988568660614902</v>
+        <v>0.03667654535675879</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9316797438219311</v>
+        <v>0.8392374063639494</v>
       </c>
       <c r="G2">
-        <v>0.0008220809955422642</v>
+        <v>0.7610093852010493</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002938346675649073</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0008594461598643299</v>
       </c>
       <c r="J2">
-        <v>0.2015096168144979</v>
+        <v>0.5098235284510935</v>
       </c>
       <c r="K2">
-        <v>0.843758049391198</v>
+        <v>0.4830851790210815</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3877316294715385</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1985509383462585</v>
       </c>
       <c r="O2">
-        <v>2.14748948803998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4406328342004215</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7237965549457783</v>
+        <v>2.295261844053584</v>
       </c>
       <c r="C3">
-        <v>0.09510985966126384</v>
+        <v>0.6480450049675142</v>
       </c>
       <c r="D3">
-        <v>0.1770436866432874</v>
+        <v>0.03471135463566455</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9056111250890311</v>
+        <v>0.7717056052359936</v>
       </c>
       <c r="G3">
-        <v>0.0008260645003548044</v>
+        <v>0.6998893513982978</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.004718321042255613</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001811757374560408</v>
       </c>
       <c r="J3">
-        <v>0.1876353295122755</v>
+        <v>0.4867807166501024</v>
       </c>
       <c r="K3">
-        <v>0.7348812633272956</v>
+        <v>0.4724615174532545</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.338520122142981</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.17867911531728</v>
       </c>
       <c r="O3">
-        <v>2.127671021152111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3844713797424149</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6567164467022906</v>
+        <v>2.085836189691975</v>
       </c>
       <c r="C4">
-        <v>0.08889929473356517</v>
+        <v>0.5993212523831062</v>
       </c>
       <c r="D4">
-        <v>0.1637939359886929</v>
+        <v>0.03350689655094286</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8912092639572933</v>
+        <v>0.730952226023085</v>
       </c>
       <c r="G4">
-        <v>0.0008285909118396749</v>
+        <v>0.6629813890271237</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.006064450381977782</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00273928307060034</v>
       </c>
       <c r="J4">
-        <v>0.1794094899012322</v>
+        <v>0.4730402858944842</v>
       </c>
       <c r="K4">
-        <v>0.6681192435245862</v>
+        <v>0.4662096825740782</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3085155640856598</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1664784879664154</v>
       </c>
       <c r="O4">
-        <v>2.11955169334388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3499955922868452</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6294137551844585</v>
+        <v>2.00043664213058</v>
       </c>
       <c r="C5">
-        <v>0.08636564344807596</v>
+        <v>0.5803320360767543</v>
       </c>
       <c r="D5">
-        <v>0.1584277699180916</v>
+        <v>0.0330701267697755</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8857259592660611</v>
+        <v>0.713287422928147</v>
       </c>
       <c r="G5">
-        <v>0.0008296410611389111</v>
+        <v>0.6467255224997359</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.006677291558292775</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.003274211168466934</v>
       </c>
       <c r="J5">
-        <v>0.1761267918659115</v>
+        <v>0.4668390364202537</v>
       </c>
       <c r="K5">
-        <v>0.6409251286293767</v>
+        <v>0.4628187235394847</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2963352613465631</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1614869385167381</v>
       </c>
       <c r="O5">
-        <v>2.117218904691285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3359433986103966</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6248818440874686</v>
+        <v>1.986227428118241</v>
       </c>
       <c r="C6">
-        <v>0.08594474203191993</v>
+        <v>0.5781608228197399</v>
       </c>
       <c r="D6">
-        <v>0.1575386462614006</v>
+        <v>0.03306373737911628</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8848382427194039</v>
+        <v>0.7088727326678992</v>
       </c>
       <c r="G6">
-        <v>0.0008298166933174794</v>
+        <v>0.6423783113366426</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.006787190650972719</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.003467418990281246</v>
       </c>
       <c r="J6">
-        <v>0.1755857726699332</v>
+        <v>0.4649629795190435</v>
       </c>
       <c r="K6">
-        <v>0.6364099968956367</v>
+        <v>0.4611534473060992</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2943153777493706</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1606368959255917</v>
       </c>
       <c r="O6">
-        <v>2.116889291484569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3336081042962888</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6563481136897451</v>
+        <v>2.084610768029336</v>
       </c>
       <c r="C7">
-        <v>0.08886513733468604</v>
+        <v>0.6017449455033841</v>
       </c>
       <c r="D7">
-        <v>0.1637214352368659</v>
+        <v>0.03368248334054869</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8911337759903759</v>
+        <v>0.7266366791599381</v>
       </c>
       <c r="G7">
-        <v>0.0008286049904922087</v>
+        <v>0.6582325083748799</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.006083972583634079</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.003000893891794476</v>
       </c>
       <c r="J7">
-        <v>0.1793649428020032</v>
+        <v>0.4706288993181005</v>
       </c>
       <c r="K7">
-        <v>0.6677524590594857</v>
+        <v>0.4631426689024529</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3083511149690992</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1663544042124769</v>
       </c>
       <c r="O7">
-        <v>2.119516335532751</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3498009108491544</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.795521212943811</v>
+        <v>2.518560327640444</v>
       </c>
       <c r="C8">
-        <v>0.1017297297425301</v>
+        <v>0.7039023404967963</v>
       </c>
       <c r="D8">
-        <v>0.1913040714096326</v>
+        <v>0.03624378443353393</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9223472569549926</v>
+        <v>0.8103856594679115</v>
       </c>
       <c r="G8">
-        <v>0.0008234380221302322</v>
+        <v>0.7337862487599836</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.003508486731101934</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001412787890115119</v>
       </c>
       <c r="J8">
-        <v>0.1966622921228875</v>
+        <v>0.4987111690793853</v>
       </c>
       <c r="K8">
-        <v>0.8061924454696054</v>
+        <v>0.475373773106881</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3707156371740652</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.191624322453869</v>
       </c>
       <c r="O8">
-        <v>2.139789502774534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4212558144645584</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.070377917699403</v>
+        <v>3.370167689470009</v>
       </c>
       <c r="C9">
-        <v>0.1269324826925953</v>
+        <v>0.9026662192305537</v>
       </c>
       <c r="D9">
-        <v>0.2466743316160205</v>
+        <v>0.0409598341555899</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9971420493586294</v>
+        <v>0.9883944625877916</v>
       </c>
       <c r="G9">
-        <v>0.0008139269479640742</v>
+        <v>0.8957947777210364</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.000602893190699394</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0008708653575117964</v>
       </c>
       <c r="J9">
-        <v>0.2331136462126864</v>
+        <v>0.561536069668449</v>
       </c>
       <c r="K9">
-        <v>1.078888851722098</v>
+        <v>0.5071630500216244</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4950019836189199</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.241411510880333</v>
       </c>
       <c r="O9">
-        <v>2.21369697612738</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5616278508623296</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.274325895258897</v>
+        <v>4.004925084791864</v>
       </c>
       <c r="C10">
-        <v>0.1454941777792129</v>
+        <v>1.066806982286607</v>
       </c>
       <c r="D10">
-        <v>0.28834766583077</v>
+        <v>0.04552329711678738</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.061643159584506</v>
+        <v>1.102390654528094</v>
       </c>
       <c r="G10">
-        <v>0.0008072919798093403</v>
+        <v>0.9951420167144676</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0001903981399529187</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002678207705943514</v>
       </c>
       <c r="J10">
-        <v>0.2617447008184115</v>
+        <v>0.5980455609655309</v>
       </c>
       <c r="K10">
-        <v>1.280758836956863</v>
+        <v>0.5164943111114368</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5879973594132224</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.262718865333099</v>
       </c>
       <c r="O10">
-        <v>2.291809412922589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.655438269791432</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.367743105512005</v>
+        <v>4.35995214172118</v>
       </c>
       <c r="C11">
-        <v>0.1539629282398636</v>
+        <v>1.275785607459824</v>
       </c>
       <c r="D11">
-        <v>0.3075721484506317</v>
+        <v>0.05794213124160308</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.09336239937835</v>
+        <v>0.9813415262186567</v>
       </c>
       <c r="G11">
-        <v>0.000804344067009066</v>
+        <v>0.8503740120461742</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01875298467694009</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003999670293476143</v>
       </c>
       <c r="J11">
-        <v>0.2752448962465905</v>
+        <v>0.5179580422005898</v>
       </c>
       <c r="K11">
-        <v>1.373112595149109</v>
+        <v>0.4017412474336126</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6307811763250584</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1605715292858036</v>
       </c>
       <c r="O11">
-        <v>2.333230177213153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6148596436865077</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.403227395019826</v>
+        <v>4.528665754824601</v>
       </c>
       <c r="C12">
-        <v>0.1571747147373657</v>
+        <v>1.425401945491615</v>
       </c>
       <c r="D12">
-        <v>0.3148948209018414</v>
+        <v>0.06909229165960085</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.105742624904693</v>
+        <v>0.8667512643820316</v>
       </c>
       <c r="G12">
-        <v>0.0008032373549825622</v>
+        <v>0.7229635126620337</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05742828640535436</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.004238423572783034</v>
       </c>
       <c r="J12">
-        <v>0.280432046854088</v>
+        <v>0.4502545608231117</v>
       </c>
       <c r="K12">
-        <v>1.408176189220313</v>
+        <v>0.3195862193193939</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6470612304185224</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1009455722682056</v>
       </c>
       <c r="O12">
-        <v>2.349825998038597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5622179025178369</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.395580073674012</v>
+        <v>4.561744626403424</v>
       </c>
       <c r="C13">
-        <v>0.1564827617931712</v>
+        <v>1.540388465568526</v>
       </c>
       <c r="D13">
-        <v>0.3133157767789072</v>
+        <v>0.08003732567272692</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.103059466848364</v>
+        <v>0.7439497444327969</v>
       </c>
       <c r="G13">
-        <v>0.0008034752869637611</v>
+        <v>0.5942954577747912</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1131972099783809</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003911493066156346</v>
       </c>
       <c r="J13">
-        <v>0.279311460354009</v>
+        <v>0.3843810511609718</v>
       </c>
       <c r="K13">
-        <v>1.400620288640908</v>
+        <v>0.2527590726538556</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6435513636585881</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07031643182862535</v>
       </c>
       <c r="O13">
-        <v>2.346210216347686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.4976498203350701</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.370660127539082</v>
+        <v>4.523337310935915</v>
       </c>
       <c r="C14">
-        <v>0.1542270589083614</v>
+        <v>1.606850143856263</v>
       </c>
       <c r="D14">
-        <v>0.3081737056079277</v>
+        <v>0.08784788940612742</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.094373374337124</v>
+        <v>0.654734233042646</v>
       </c>
       <c r="G14">
-        <v>0.0008042528278677388</v>
+        <v>0.5045351120361943</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.162582810063526</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.003531481112887036</v>
       </c>
       <c r="J14">
-        <v>0.2756701057759727</v>
+        <v>0.3394436073784703</v>
       </c>
       <c r="K14">
-        <v>1.375995372726095</v>
+        <v>0.2142170181781253</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6321189093404129</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06611294122431133</v>
       </c>
       <c r="O14">
-        <v>2.334576889785097</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.4477326635214141</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.355410695882483</v>
+        <v>4.484454275980397</v>
       </c>
       <c r="C15">
-        <v>0.1528460474292785</v>
+        <v>1.615244223196498</v>
       </c>
       <c r="D15">
-        <v>0.3050297446811499</v>
+        <v>0.08957122821477981</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.089101759823123</v>
+        <v>0.6295165234037583</v>
       </c>
       <c r="G15">
-        <v>0.0008047303281484761</v>
+        <v>0.480208072801446</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1751176379570012</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003435107449996089</v>
       </c>
       <c r="J15">
-        <v>0.2734496289269543</v>
+        <v>0.3277996089336312</v>
       </c>
       <c r="K15">
-        <v>1.360924282441431</v>
+        <v>0.2060306061568866</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6251267589559077</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06720023841253742</v>
       </c>
       <c r="O15">
-        <v>2.327571722574362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4329787027303169</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.268235181228619</v>
+        <v>4.201045730020894</v>
       </c>
       <c r="C16">
-        <v>0.1449413328671625</v>
+        <v>1.517984190766299</v>
       </c>
       <c r="D16">
-        <v>0.2870970416375656</v>
+        <v>0.08507944339064721</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.059620332838108</v>
+        <v>0.6043274387013966</v>
       </c>
       <c r="G16">
-        <v>0.0008074860051545905</v>
+        <v>0.4625686480493698</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1625809605665154</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002611819775323099</v>
       </c>
       <c r="J16">
-        <v>0.2608725502837217</v>
+        <v>0.3246044076807948</v>
       </c>
       <c r="K16">
-        <v>1.274735160091609</v>
+        <v>0.2143775622313981</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.585211808334634</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0651710294212684</v>
       </c>
       <c r="O16">
-        <v>2.289226306004224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4076797107788082</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.214931611619676</v>
+        <v>4.004909563733634</v>
       </c>
       <c r="C17">
-        <v>0.1400993035291123</v>
+        <v>1.40821340033574</v>
       </c>
       <c r="D17">
-        <v>0.2761673275555552</v>
+        <v>0.07741614074468828</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.042161916634186</v>
+        <v>0.6316422036834126</v>
       </c>
       <c r="G17">
-        <v>0.0008091941868349068</v>
+        <v>0.4955870377843183</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1249670396707074</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.00227501282665088</v>
       </c>
       <c r="J17">
-        <v>0.2532832574753456</v>
+        <v>0.3455566798543259</v>
       </c>
       <c r="K17">
-        <v>1.222005750972158</v>
+        <v>0.2400646407374936</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5608548759946999</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06296423480386548</v>
       </c>
       <c r="O17">
-        <v>2.267254612388655</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4143155609556572</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.184331970224861</v>
+        <v>3.862090767165284</v>
       </c>
       <c r="C18">
-        <v>0.1373165618980892</v>
+        <v>1.27716487420355</v>
       </c>
       <c r="D18">
-        <v>0.2699057035373613</v>
+        <v>0.06673217941597187</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.032342338723311</v>
+        <v>0.7128991153426085</v>
       </c>
       <c r="G18">
-        <v>0.0008101833441391206</v>
+        <v>0.5834161082134983</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07218295324817348</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001923980973695727</v>
       </c>
       <c r="J18">
-        <v>0.2489624634035863</v>
+        <v>0.3933008413306425</v>
       </c>
       <c r="K18">
-        <v>1.191725291902856</v>
+        <v>0.2911043026646674</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5468899431177405</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07548387813894308</v>
       </c>
       <c r="O18">
-        <v>2.255167081939589</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4501728091959194</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.173981116819903</v>
+        <v>3.773332323326656</v>
       </c>
       <c r="C19">
-        <v>0.1363747256106365</v>
+        <v>1.152233826997616</v>
       </c>
       <c r="D19">
-        <v>0.2677897664840003</v>
+        <v>0.05623265048394899</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.029054943786605</v>
+        <v>0.830733977976422</v>
       </c>
       <c r="G19">
-        <v>0.0008105194143754765</v>
+        <v>0.7102521519678078</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02679196384999472</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002074978692481189</v>
       </c>
       <c r="J19">
-        <v>0.2475069463429946</v>
+        <v>0.4594187416881397</v>
       </c>
       <c r="K19">
-        <v>1.181480638275133</v>
+        <v>0.3648325574260411</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5421690191733148</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1215054300074243</v>
       </c>
       <c r="O19">
-        <v>2.251167037667528</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5088619049795469</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.220599624413495</v>
+        <v>3.838024923486273</v>
       </c>
       <c r="C20">
-        <v>0.1406145024950689</v>
+        <v>1.032774785091249</v>
       </c>
       <c r="D20">
-        <v>0.2773282108360036</v>
+        <v>0.04498428879729488</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.043997225213332</v>
+        <v>1.058517770642069</v>
       </c>
       <c r="G20">
-        <v>0.000809011662744224</v>
+        <v>0.9536746456856378</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001803176754409108</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002773873557774031</v>
       </c>
       <c r="J20">
-        <v>0.2540865133124726</v>
+        <v>0.5806050343975642</v>
       </c>
       <c r="K20">
-        <v>1.227613795102826</v>
+        <v>0.5041068957385377</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5634430358789402</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2562785832724828</v>
       </c>
       <c r="O20">
-        <v>2.269536163454802</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6303490768198969</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.377976612408474</v>
+        <v>4.314869731684894</v>
       </c>
       <c r="C21">
-        <v>0.1548894711322788</v>
+        <v>1.137000023757111</v>
       </c>
       <c r="D21">
-        <v>0.3096828591481113</v>
+        <v>0.04686855373658716</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.096914455263416</v>
+        <v>1.181440671179914</v>
       </c>
       <c r="G21">
-        <v>0.0008040241891076285</v>
+        <v>1.068856703222224</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0001300412326783462</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.004824231894985154</v>
       </c>
       <c r="J21">
-        <v>0.2767375723569501</v>
+        <v>0.628527087284354</v>
       </c>
       <c r="K21">
-        <v>1.383225696480366</v>
+        <v>0.5361838709585811</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6354746795549246</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2968203262601321</v>
       </c>
       <c r="O21">
-        <v>2.337968629571293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.717572209714568</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.481477104216822</v>
+        <v>4.63125373702502</v>
       </c>
       <c r="C22">
-        <v>0.1642479518654056</v>
+        <v>1.209359566644082</v>
       </c>
       <c r="D22">
-        <v>0.3310800967566081</v>
+        <v>0.04835036634794676</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.13366276981516</v>
+        <v>1.2583627474895</v>
       </c>
       <c r="G22">
-        <v>0.0008008202677199569</v>
+        <v>1.140114330186577</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0005379995391061598</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.006364918054774016</v>
       </c>
       <c r="J22">
-        <v>0.2919814114057573</v>
+        <v>0.6578355779464005</v>
       </c>
       <c r="K22">
-        <v>1.485467248951608</v>
+        <v>0.554197810468537</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6830156147620059</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3155899705877374</v>
       </c>
       <c r="O22">
-        <v>2.388034579211308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7698195708946542</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.426171864184425</v>
+        <v>4.462443901178233</v>
       </c>
       <c r="C23">
-        <v>0.1592500568056323</v>
+        <v>1.167329387123857</v>
       </c>
       <c r="D23">
-        <v>0.3196354379302164</v>
+        <v>0.04732292219586753</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.113842071526136</v>
+        <v>1.222017590075907</v>
       </c>
       <c r="G23">
-        <v>0.000802525346999335</v>
+        <v>1.107334707641598</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0002885483864092375</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.005223396185115803</v>
       </c>
       <c r="J23">
-        <v>0.2838029448727042</v>
+        <v>0.6448567161950507</v>
       </c>
       <c r="K23">
-        <v>1.430843910724718</v>
+        <v>0.5480438547974273</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6575962379249276</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.30562157099952</v>
       </c>
       <c r="O23">
-        <v>2.360802252378022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.74193093468255</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.218036976039713</v>
+        <v>3.824665904554706</v>
       </c>
       <c r="C24">
-        <v>0.1403815780053463</v>
+        <v>1.015137442815075</v>
       </c>
       <c r="D24">
-        <v>0.2768033072624547</v>
+        <v>0.04381884718494078</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.043166806762869</v>
+        <v>1.079631452959717</v>
       </c>
       <c r="G24">
-        <v>0.0008090941596869347</v>
+        <v>0.977433811761145</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.931225181792342E-05</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002318189296127038</v>
       </c>
       <c r="J24">
-        <v>0.2537232297944598</v>
+        <v>0.5928660250434064</v>
       </c>
       <c r="K24">
-        <v>1.225078292469533</v>
+        <v>0.5202829108776683</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5622728105651404</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2680098457619948</v>
       </c>
       <c r="O24">
-        <v>2.268502983672192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6366298380711939</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9957322206168442</v>
+        <v>3.139406206966555</v>
       </c>
       <c r="C25">
-        <v>0.120111176174504</v>
+        <v>0.8534285351521476</v>
       </c>
       <c r="D25">
-        <v>0.2315370307751152</v>
+        <v>0.04002631992508299</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9753278592192629</v>
+        <v>0.9320251337763921</v>
       </c>
       <c r="G25">
-        <v>0.0008164360214783293</v>
+        <v>0.843016601803896</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001143832067954209</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.00107959568363647</v>
       </c>
       <c r="J25">
-        <v>0.2229511236628099</v>
+        <v>0.5399078236936532</v>
       </c>
       <c r="K25">
-        <v>1.004910003476937</v>
+        <v>0.492851545705193</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.46111968962974</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2278125888626619</v>
       </c>
       <c r="O25">
-        <v>2.189749903180825</v>
+        <v>0.5235856176847022</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.636238788035826</v>
+        <v>2.642092115662479</v>
       </c>
       <c r="C2">
-        <v>0.7279362379969427</v>
+        <v>0.7807168073933326</v>
       </c>
       <c r="D2">
-        <v>0.03667654535675879</v>
+        <v>0.0411839611076239</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8392374063639494</v>
+        <v>0.7323308112610505</v>
       </c>
       <c r="G2">
-        <v>0.7610093852010493</v>
+        <v>0.6217077644780176</v>
       </c>
       <c r="H2">
-        <v>0.002938346675649073</v>
+        <v>0.002470586059258872</v>
       </c>
       <c r="I2">
-        <v>0.0008594461598643299</v>
+        <v>0.00071512579820876</v>
       </c>
       <c r="J2">
-        <v>0.5098235284510935</v>
+        <v>0.489320996798412</v>
       </c>
       <c r="K2">
-        <v>0.4830851790210815</v>
+        <v>0.3975015065646694</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1951203276430995</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1106316334634663</v>
       </c>
       <c r="N2">
-        <v>0.1985509383462585</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4406328342004215</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2022111729808316</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4410997052545014</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.295261844053584</v>
+        <v>2.301956286122504</v>
       </c>
       <c r="C3">
-        <v>0.6480450049675142</v>
+        <v>0.6875468334156665</v>
       </c>
       <c r="D3">
-        <v>0.03471135463566455</v>
+        <v>0.03790222799973364</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7717056052359936</v>
+        <v>0.6806937632066195</v>
       </c>
       <c r="G3">
-        <v>0.6998893513982978</v>
+        <v>0.5787961188426891</v>
       </c>
       <c r="H3">
-        <v>0.004718321042255613</v>
+        <v>0.003950329010199372</v>
       </c>
       <c r="I3">
-        <v>0.001811757374560408</v>
+        <v>0.001298527427130214</v>
       </c>
       <c r="J3">
-        <v>0.4867807166501024</v>
+        <v>0.471258459995596</v>
       </c>
       <c r="K3">
-        <v>0.4724615174532545</v>
+        <v>0.3964629164465698</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.199292983607382</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1066636911338215</v>
       </c>
       <c r="N3">
-        <v>0.17867911531728</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3844713797424149</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1833215539743165</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3849590434752983</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.085836189691975</v>
+        <v>2.092858076550897</v>
       </c>
       <c r="C4">
-        <v>0.5993212523831062</v>
+        <v>0.6308469153400722</v>
       </c>
       <c r="D4">
-        <v>0.03350689655094286</v>
+        <v>0.03590870953010494</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.730952226023085</v>
+        <v>0.6494270692825452</v>
       </c>
       <c r="G4">
-        <v>0.6629813890271237</v>
+        <v>0.5529963522278223</v>
       </c>
       <c r="H4">
-        <v>0.006064450381977782</v>
+        <v>0.005068569443455684</v>
       </c>
       <c r="I4">
-        <v>0.00273928307060034</v>
+        <v>0.001928069225338724</v>
       </c>
       <c r="J4">
-        <v>0.4730402858944842</v>
+        <v>0.4601945614289917</v>
       </c>
       <c r="K4">
-        <v>0.4662096825740782</v>
+        <v>0.3959740387782738</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2018216665177519</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1048978226673363</v>
       </c>
       <c r="N4">
-        <v>0.1664784879664154</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3499955922868452</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1717152412177541</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3504707246503216</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.00043664213058</v>
+        <v>2.007548649050364</v>
       </c>
       <c r="C5">
-        <v>0.5803320360767543</v>
+        <v>0.6086482690055277</v>
       </c>
       <c r="D5">
-        <v>0.0330701267697755</v>
+        <v>0.03516129187326555</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.713287422928147</v>
+        <v>0.635736607795323</v>
       </c>
       <c r="G5">
-        <v>0.6467255224997359</v>
+        <v>0.5414691000128897</v>
       </c>
       <c r="H5">
-        <v>0.006677291558292775</v>
+        <v>0.005577632736721128</v>
       </c>
       <c r="I5">
-        <v>0.003274211168466934</v>
+        <v>0.002336325971183051</v>
       </c>
       <c r="J5">
-        <v>0.4668390364202537</v>
+        <v>0.4550824299195142</v>
       </c>
       <c r="K5">
-        <v>0.4628187235394847</v>
+        <v>0.3950836190751659</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.202505518148115</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1041372616648317</v>
       </c>
       <c r="N5">
-        <v>0.1614869385167381</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3359433986103966</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1669649110548406</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3364078353522473</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.986227428118241</v>
+        <v>1.993351083066159</v>
       </c>
       <c r="C6">
-        <v>0.5781608228197399</v>
+        <v>0.6059419801766239</v>
       </c>
       <c r="D6">
-        <v>0.03306373737911628</v>
+        <v>0.03511116182995622</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7088727326678992</v>
+        <v>0.6321903219527769</v>
       </c>
       <c r="G6">
-        <v>0.6423783113366426</v>
+        <v>0.5381747685752032</v>
       </c>
       <c r="H6">
-        <v>0.006787190650972719</v>
+        <v>0.00566900941930526</v>
       </c>
       <c r="I6">
-        <v>0.003467418990281246</v>
+        <v>0.002523259238646602</v>
       </c>
       <c r="J6">
-        <v>0.4649629795190435</v>
+        <v>0.4534918664692356</v>
       </c>
       <c r="K6">
-        <v>0.4611534473060992</v>
+        <v>0.3940538475461928</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2022071946231456</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1037681859113135</v>
       </c>
       <c r="N6">
-        <v>0.1606368959255917</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3336081042962888</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1661555344604295</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3340705184781996</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.084610768029336</v>
+        <v>2.091593802985699</v>
       </c>
       <c r="C7">
-        <v>0.6017449455033841</v>
+        <v>0.6323389442401037</v>
       </c>
       <c r="D7">
-        <v>0.03368248334054869</v>
+        <v>0.03623110136328833</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7266366791599381</v>
+        <v>0.6436529247099116</v>
       </c>
       <c r="G7">
-        <v>0.6582325083748799</v>
+        <v>0.5518524247511749</v>
       </c>
       <c r="H7">
-        <v>0.006083972583634079</v>
+        <v>0.005090039793960721</v>
       </c>
       <c r="I7">
-        <v>0.003000893891794476</v>
+        <v>0.002233152393889881</v>
       </c>
       <c r="J7">
-        <v>0.4706288993181005</v>
+        <v>0.4515516246543569</v>
       </c>
       <c r="K7">
-        <v>0.4631426689024529</v>
+        <v>0.3925274800915908</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2002628876945067</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1038735425065802</v>
       </c>
       <c r="N7">
-        <v>0.1663544042124769</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3498009108491544</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1715683808404052</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3502736341955028</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.518560327640444</v>
+        <v>2.524608183981854</v>
       </c>
       <c r="C8">
-        <v>0.7039023404967963</v>
+        <v>0.7491139625511494</v>
       </c>
       <c r="D8">
-        <v>0.03624378443353393</v>
+        <v>0.04077178838889139</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8103856594679115</v>
+        <v>0.702881973151058</v>
       </c>
       <c r="G8">
-        <v>0.7337862487599836</v>
+        <v>0.6111781604670199</v>
       </c>
       <c r="H8">
-        <v>0.003508486731101934</v>
+        <v>0.002956814911738603</v>
       </c>
       <c r="I8">
-        <v>0.001412787890115119</v>
+        <v>0.001215970157598889</v>
       </c>
       <c r="J8">
-        <v>0.4987111690793853</v>
+        <v>0.458974024051912</v>
       </c>
       <c r="K8">
-        <v>0.475373773106881</v>
+        <v>0.3906316766420588</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1938069387246308</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1070088529274251</v>
       </c>
       <c r="N8">
-        <v>0.191624322453869</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4212558144645584</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1955400305138255</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4217254619317359</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.370167689470009</v>
+        <v>3.372771069650923</v>
       </c>
       <c r="C9">
-        <v>0.9026662192305537</v>
+        <v>0.9810984500000473</v>
       </c>
       <c r="D9">
-        <v>0.0409598341555899</v>
+        <v>0.04900893743161561</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9883944625877916</v>
+        <v>0.8369536769042867</v>
       </c>
       <c r="G9">
-        <v>0.8957947777210364</v>
+        <v>0.7291645554384445</v>
       </c>
       <c r="H9">
-        <v>0.000602893190699394</v>
+        <v>0.0005267422465708993</v>
       </c>
       <c r="I9">
-        <v>0.0008708653575117964</v>
+        <v>0.001086341378345068</v>
       </c>
       <c r="J9">
-        <v>0.561536069668449</v>
+        <v>0.5007504590557943</v>
       </c>
       <c r="K9">
-        <v>0.5071630500216244</v>
+        <v>0.3962141878716494</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1843695091860269</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1211135961730569</v>
       </c>
       <c r="N9">
-        <v>0.241411510880333</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5616278508623296</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2427742067524576</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5618636931100696</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.004925084791864</v>
+        <v>4.00337802610602</v>
       </c>
       <c r="C10">
-        <v>1.066806982286607</v>
+        <v>1.163920156623334</v>
       </c>
       <c r="D10">
-        <v>0.04552329711678738</v>
+        <v>0.05722108704814133</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.102390654528094</v>
+        <v>0.9101479423296723</v>
       </c>
       <c r="G10">
-        <v>0.9951420167144676</v>
+        <v>0.8186150448066201</v>
       </c>
       <c r="H10">
-        <v>0.0001903981399529187</v>
+        <v>0.0001938454561232206</v>
       </c>
       <c r="I10">
-        <v>0.002678207705943514</v>
+        <v>0.002748021937407863</v>
       </c>
       <c r="J10">
-        <v>0.5980455609655309</v>
+        <v>0.4868222123023997</v>
       </c>
       <c r="K10">
-        <v>0.5164943111114368</v>
+        <v>0.3850398296990107</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1715432805298711</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1284462136786075</v>
       </c>
       <c r="N10">
-        <v>0.262718865333099</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.655438269791432</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2620059011877487</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6552906043566438</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.35995214172118</v>
+        <v>4.356453010552457</v>
       </c>
       <c r="C11">
-        <v>1.275785607459824</v>
+        <v>1.358850447841974</v>
       </c>
       <c r="D11">
-        <v>0.05794213124160308</v>
+        <v>0.0736363895447596</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9813415262186567</v>
+        <v>0.7942164868857589</v>
       </c>
       <c r="G11">
-        <v>0.8503740120461742</v>
+        <v>0.7428370952926855</v>
       </c>
       <c r="H11">
-        <v>0.01875298467694009</v>
+        <v>0.01876019928725015</v>
       </c>
       <c r="I11">
-        <v>0.003999670293476143</v>
+        <v>0.00401291276752147</v>
       </c>
       <c r="J11">
-        <v>0.5179580422005898</v>
+        <v>0.3628319142029994</v>
       </c>
       <c r="K11">
-        <v>0.4017412474336126</v>
+        <v>0.2932426341871626</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1363519356159202</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.09638636529210487</v>
       </c>
       <c r="N11">
-        <v>0.1605715292858036</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6148596436865077</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1591362734897928</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6145674305814595</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.528665754824601</v>
+        <v>4.524581606128663</v>
       </c>
       <c r="C12">
-        <v>1.425401945491615</v>
+        <v>1.492107814606015</v>
       </c>
       <c r="D12">
-        <v>0.06909229165960085</v>
+        <v>0.08655577391937896</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8667512643820316</v>
+        <v>0.6983840395805885</v>
       </c>
       <c r="G12">
-        <v>0.7229635126620337</v>
+        <v>0.658833134281096</v>
       </c>
       <c r="H12">
-        <v>0.05742828640535436</v>
+        <v>0.05744432051204029</v>
       </c>
       <c r="I12">
-        <v>0.004238423572783034</v>
+        <v>0.004198483146064191</v>
       </c>
       <c r="J12">
-        <v>0.4502545608231117</v>
+        <v>0.2949368162091162</v>
       </c>
       <c r="K12">
-        <v>0.3195862193193939</v>
+        <v>0.2349864326734199</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1160016721497978</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.07366097059035681</v>
       </c>
       <c r="N12">
-        <v>0.1009455722682056</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5622179025178369</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.0993891282467132</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5619185193022389</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.561744626403424</v>
+        <v>4.558322293093624</v>
       </c>
       <c r="C13">
-        <v>1.540388465568526</v>
+        <v>1.591676614010112</v>
       </c>
       <c r="D13">
-        <v>0.08003732567272692</v>
+        <v>0.09674681628006709</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7439497444327969</v>
+        <v>0.6095396131928865</v>
       </c>
       <c r="G13">
-        <v>0.5942954577747912</v>
+        <v>0.5528068506862667</v>
       </c>
       <c r="H13">
-        <v>0.1131972099783809</v>
+        <v>0.1132241586638116</v>
       </c>
       <c r="I13">
-        <v>0.003911493066156346</v>
+        <v>0.003927249276612699</v>
       </c>
       <c r="J13">
-        <v>0.3843810511609718</v>
+        <v>0.2630757131397417</v>
       </c>
       <c r="K13">
-        <v>0.2527590726538556</v>
+        <v>0.1944214652689205</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.103054234712415</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.05591787680659799</v>
       </c>
       <c r="N13">
-        <v>0.07031643182862535</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4976498203350701</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.069071632851883</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.4974332962512875</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.523337310935915</v>
+        <v>4.520901597759632</v>
       </c>
       <c r="C14">
-        <v>1.606850143856263</v>
+        <v>1.647680318539756</v>
       </c>
       <c r="D14">
-        <v>0.08784788940612742</v>
+        <v>0.1026748097875583</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.654734233042646</v>
+        <v>0.5493211546715671</v>
       </c>
       <c r="G14">
-        <v>0.5045351120361943</v>
+        <v>0.4709799739587339</v>
       </c>
       <c r="H14">
-        <v>0.162582810063526</v>
+        <v>0.1626110171637976</v>
       </c>
       <c r="I14">
-        <v>0.003531481112887036</v>
+        <v>0.003640667300810918</v>
       </c>
       <c r="J14">
-        <v>0.3394436073784703</v>
+        <v>0.2529108854724882</v>
       </c>
       <c r="K14">
-        <v>0.2142170181781253</v>
+        <v>0.1735338125785741</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0967960376407575</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04593555061161858</v>
       </c>
       <c r="N14">
-        <v>0.06611294122431133</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4477326635214141</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.06524468330285416</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4475958534503164</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.484454275980397</v>
+        <v>4.48251843763353</v>
       </c>
       <c r="C15">
-        <v>1.615244223196498</v>
+        <v>1.654060709022531</v>
       </c>
       <c r="D15">
-        <v>0.08957122821477981</v>
+        <v>0.1034290643079601</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6295165234037583</v>
+        <v>0.5338923896737739</v>
       </c>
       <c r="G15">
-        <v>0.480208072801446</v>
+        <v>0.4460696340166237</v>
       </c>
       <c r="H15">
-        <v>0.1751176379570012</v>
+        <v>0.1751435851444541</v>
       </c>
       <c r="I15">
-        <v>0.003435107449996089</v>
+        <v>0.003608148961832924</v>
       </c>
       <c r="J15">
-        <v>0.3277996089336312</v>
+        <v>0.2548316495655172</v>
       </c>
       <c r="K15">
-        <v>0.2060306061568866</v>
+        <v>0.1700392827557984</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09587855468360473</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04390842962382102</v>
       </c>
       <c r="N15">
-        <v>0.06720023841253742</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4329787027303169</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.06650964905818668</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4328736149627517</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.201045730020894</v>
+        <v>4.201467895525752</v>
       </c>
       <c r="C16">
-        <v>1.517984190766299</v>
+        <v>1.562586580802929</v>
       </c>
       <c r="D16">
-        <v>0.08507944339064721</v>
+        <v>0.09511259373785919</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6043274387013966</v>
+        <v>0.5322925372574758</v>
       </c>
       <c r="G16">
-        <v>0.4625686480493698</v>
+        <v>0.408235089577019</v>
       </c>
       <c r="H16">
-        <v>0.1625809605665154</v>
+        <v>0.1625708256462843</v>
       </c>
       <c r="I16">
-        <v>0.002611819775323099</v>
+        <v>0.002956789209523691</v>
       </c>
       <c r="J16">
-        <v>0.3246044076807948</v>
+        <v>0.2981685317938201</v>
       </c>
       <c r="K16">
-        <v>0.2143775622313981</v>
+        <v>0.18366432609605</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1013986881315034</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04696387220165832</v>
       </c>
       <c r="N16">
-        <v>0.0651710294212684</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4076797107788082</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.06533016318287288</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4077019546004692</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.004909563733634</v>
+        <v>4.006468260717554</v>
       </c>
       <c r="C17">
-        <v>1.40821340033574</v>
+        <v>1.460740999718553</v>
       </c>
       <c r="D17">
-        <v>0.07741614074468828</v>
+        <v>0.08618344550011869</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6316422036834126</v>
+        <v>0.5612751232361077</v>
       </c>
       <c r="G17">
-        <v>0.4955870377843183</v>
+        <v>0.4239581208738912</v>
       </c>
       <c r="H17">
-        <v>0.1249670396707074</v>
+        <v>0.1249192127407923</v>
       </c>
       <c r="I17">
-        <v>0.00227501282665088</v>
+        <v>0.002681100844005968</v>
       </c>
       <c r="J17">
-        <v>0.3455566798543259</v>
+        <v>0.3353185638675029</v>
       </c>
       <c r="K17">
-        <v>0.2400646407374936</v>
+        <v>0.2052791687951423</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1096174545808903</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05410238703747439</v>
       </c>
       <c r="N17">
-        <v>0.06296423480386548</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4143155609556572</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.06358502411921441</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4144020399752293</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.862090767165284</v>
+        <v>3.864050217187014</v>
       </c>
       <c r="C18">
-        <v>1.27716487420355</v>
+        <v>1.34163040866423</v>
       </c>
       <c r="D18">
-        <v>0.06673217941597187</v>
+        <v>0.07549855088736734</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7128991153426085</v>
+        <v>0.6280166501399762</v>
       </c>
       <c r="G18">
-        <v>0.5834161082134983</v>
+        <v>0.4872068296200496</v>
       </c>
       <c r="H18">
-        <v>0.07218295324817348</v>
+        <v>0.07211923774843143</v>
       </c>
       <c r="I18">
-        <v>0.001923980973695727</v>
+        <v>0.002296528187984315</v>
       </c>
       <c r="J18">
-        <v>0.3933008413306425</v>
+        <v>0.3817805738371476</v>
       </c>
       <c r="K18">
-        <v>0.2911043026646674</v>
+        <v>0.242684438253324</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1236028821663382</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.06777628863901519</v>
       </c>
       <c r="N18">
-        <v>0.07548387813894308</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4501728091959194</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.07631310690961257</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4502962888911526</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.773332323326656</v>
+        <v>3.775100003321313</v>
       </c>
       <c r="C19">
-        <v>1.152233826997616</v>
+        <v>1.229789667143677</v>
       </c>
       <c r="D19">
-        <v>0.05623265048394899</v>
+        <v>0.06540189188370249</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.830733977976422</v>
+        <v>0.7197920134978801</v>
       </c>
       <c r="G19">
-        <v>0.7102521519678078</v>
+        <v>0.5818635283840905</v>
       </c>
       <c r="H19">
-        <v>0.02679196384999472</v>
+        <v>0.02674206660982748</v>
       </c>
       <c r="I19">
-        <v>0.002074978692481189</v>
+        <v>0.002466297899886172</v>
       </c>
       <c r="J19">
-        <v>0.4594187416881397</v>
+        <v>0.4352016395202867</v>
       </c>
       <c r="K19">
-        <v>0.3648325574260411</v>
+        <v>0.2941199241006736</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1425866022771842</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0873266087357436</v>
       </c>
       <c r="N19">
-        <v>0.1215054300074243</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5088619049795469</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1223006985479529</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5089933741382779</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.838024923486273</v>
+        <v>3.837904634359631</v>
       </c>
       <c r="C20">
-        <v>1.032774785091249</v>
+        <v>1.128304744648887</v>
       </c>
       <c r="D20">
-        <v>0.04498428879729488</v>
+        <v>0.05528389655050603</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.058517770642069</v>
+        <v>0.8868947541137686</v>
       </c>
       <c r="G20">
-        <v>0.9536746456856378</v>
+        <v>0.7721414529712547</v>
       </c>
       <c r="H20">
-        <v>0.0001803176754409108</v>
+        <v>0.0001813629093212477</v>
       </c>
       <c r="I20">
-        <v>0.002773873557774031</v>
+        <v>0.003093099357699636</v>
       </c>
       <c r="J20">
-        <v>0.5806050343975642</v>
+        <v>0.5063395506455777</v>
       </c>
       <c r="K20">
-        <v>0.5041068957385377</v>
+        <v>0.3839878156575125</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1734382550757019</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1248224611071009</v>
       </c>
       <c r="N20">
-        <v>0.2562785832724828</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6303490768198969</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2562213868976997</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6303377332597861</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.314869731684894</v>
+        <v>4.309842659117805</v>
       </c>
       <c r="C21">
-        <v>1.137000023757111</v>
+        <v>1.231196388685419</v>
       </c>
       <c r="D21">
-        <v>0.04686855373658716</v>
+        <v>0.06282347311930181</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.181440671179914</v>
+        <v>0.9306991845885477</v>
       </c>
       <c r="G21">
-        <v>1.068856703222224</v>
+        <v>0.9270774705819633</v>
       </c>
       <c r="H21">
-        <v>0.0001300412326783462</v>
+        <v>7.965031445134052E-05</v>
       </c>
       <c r="I21">
-        <v>0.004824231894985154</v>
+        <v>0.004732969547137422</v>
       </c>
       <c r="J21">
-        <v>0.628527087284354</v>
+        <v>0.4023262837038146</v>
       </c>
       <c r="K21">
-        <v>0.5361838709585811</v>
+        <v>0.3746485724240571</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1636141207932198</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1306644352458832</v>
       </c>
       <c r="N21">
-        <v>0.2968203262601321</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.717572209714568</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2946030727098901</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7170691744660402</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.63125373702502</v>
+        <v>4.622562544611526</v>
       </c>
       <c r="C22">
-        <v>1.209359566644082</v>
+        <v>1.300614258626922</v>
       </c>
       <c r="D22">
-        <v>0.04835036634794676</v>
+        <v>0.06841677266675816</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.2583627474895</v>
+        <v>0.9536347237421694</v>
       </c>
       <c r="G22">
-        <v>1.140114330186577</v>
+        <v>1.03377422905956</v>
       </c>
       <c r="H22">
-        <v>0.0005379995391061598</v>
+        <v>0.0003677074780665812</v>
       </c>
       <c r="I22">
-        <v>0.006364918054774016</v>
+        <v>0.005789154122100904</v>
       </c>
       <c r="J22">
-        <v>0.6578355779464005</v>
+        <v>0.3357412449441455</v>
       </c>
       <c r="K22">
-        <v>0.554197810468537</v>
+        <v>0.3654480561746638</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1563195701441558</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1335039558936124</v>
       </c>
       <c r="N22">
-        <v>0.3155899705877374</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7698195708946542</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.311935812329267</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7689288137343766</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.462443901178233</v>
+        <v>4.455862791705727</v>
       </c>
       <c r="C23">
-        <v>1.167329387123857</v>
+        <v>1.262609300268196</v>
       </c>
       <c r="D23">
-        <v>0.04732292219586753</v>
+        <v>0.06468728659874046</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.222017590075907</v>
+        <v>0.9506360488649079</v>
       </c>
       <c r="G23">
-        <v>1.107334707641598</v>
+        <v>0.9727787922253839</v>
       </c>
       <c r="H23">
-        <v>0.0002885483864092375</v>
+        <v>0.0001915726252230687</v>
       </c>
       <c r="I23">
-        <v>0.005223396185115803</v>
+        <v>0.004865192272235142</v>
       </c>
       <c r="J23">
-        <v>0.6448567161950507</v>
+        <v>0.3849796718616574</v>
       </c>
       <c r="K23">
-        <v>0.5480438547974273</v>
+        <v>0.375227128602674</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1618249168299393</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1340000371522443</v>
       </c>
       <c r="N23">
-        <v>0.30562157099952</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.74193093468255</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3027849896041062</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7412650682767534</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.824665904554706</v>
+        <v>3.824515652456512</v>
       </c>
       <c r="C24">
-        <v>1.015137442815075</v>
+        <v>1.111375239536414</v>
       </c>
       <c r="D24">
-        <v>0.04381884718494078</v>
+        <v>0.05394730588925256</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.079631452959717</v>
+        <v>0.9037992963083781</v>
       </c>
       <c r="G24">
-        <v>0.977433811761145</v>
+        <v>0.7899322935247568</v>
       </c>
       <c r="H24">
-        <v>4.931225181792342E-05</v>
+        <v>5.047773946675882E-05</v>
       </c>
       <c r="I24">
-        <v>0.002318189296127038</v>
+        <v>0.002534260791627219</v>
       </c>
       <c r="J24">
-        <v>0.5928660250434064</v>
+        <v>0.5169135155744868</v>
       </c>
       <c r="K24">
-        <v>0.5202829108776683</v>
+        <v>0.3956712878586188</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1777488317413649</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1292656126796921</v>
       </c>
       <c r="N24">
-        <v>0.2680098457619948</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6366298380711939</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2679378898610452</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6366154823045207</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.139406206966555</v>
+        <v>3.143241710798975</v>
       </c>
       <c r="C25">
-        <v>0.8534285351521476</v>
+        <v>0.9240570315540992</v>
       </c>
       <c r="D25">
-        <v>0.04002631992508299</v>
+        <v>0.04696097589565085</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9320251337763921</v>
+        <v>0.7969248250199001</v>
       </c>
       <c r="G25">
-        <v>0.843016601803896</v>
+        <v>0.685742614876645</v>
       </c>
       <c r="H25">
-        <v>0.001143832067954209</v>
+        <v>0.0009796407442544952</v>
       </c>
       <c r="I25">
-        <v>0.00107959568363647</v>
+        <v>0.001343048055315599</v>
       </c>
       <c r="J25">
-        <v>0.5399078236936532</v>
+        <v>0.495025855176678</v>
       </c>
       <c r="K25">
-        <v>0.492851545705193</v>
+        <v>0.3918107152266188</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1858922802851311</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1157017725968856</v>
       </c>
       <c r="N25">
-        <v>0.2278125888626619</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5235856176847022</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2299257658732401</v>
       </c>
       <c r="Q25">
+        <v>0.5239220997223626</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
